--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29751.45671908047</v>
+        <v>37591.51477200969</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22668979.22872371</v>
+        <v>24644001.9952638</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20794688.49810569</v>
+        <v>20576244.27602931</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1794680.775184845</v>
+        <v>1761374.822059206</v>
       </c>
     </row>
     <row r="11">
@@ -3980,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>63.63309049287398</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>56.04802610612342</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>63.63309049287398</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>63.63309049287398</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4062,10 +4064,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>50.79818834435938</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>63.63309049287398</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>5.249837761764036</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4110,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>63.63309049287398</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>63.63309049287398</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4138,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>56.04802610612342</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.63309049287398</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>63.63309049287398</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>63.63309049287398</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>125.980664006094</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>125.980664006094</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>61.70481502339297</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>61.70481502339297</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>61.70481502339297</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.090647239429919</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5.090647239429919</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>5.090647239429919</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>5.090647239429919</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>21.37821359469972</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>56.52959345601399</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>108.4683986623846</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>163.1162204307706</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>209.3178280916577</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>254.5323619714959</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>254.5323619714959</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>254.5323619714959</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>254.5323619714959</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>254.5323619714959</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>190.256512988795</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>125.980664006094</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>125.980664006094</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>125.980664006094</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>125.980664006094</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>125.980664006094</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>125.980664006094</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>125.980664006094</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>74.66936264815519</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>10.3935136654542</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>10.3935136654542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>10.3935136654542</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>5.090647239429919</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>5.090647239429919</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>20.82297158645815</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>60.73765232828676</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>115.1557337099051</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>176.8496009705175</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>224.2884195832109</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>254.5323619714959</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>254.5323619714959</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>254.5323619714959</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>254.5323619714959</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>254.5323619714959</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>190.256512988795</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>190.256512988795</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>125.980664006094</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>125.980664006094</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>125.980664006094</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>125.980664006094</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>125.980664006094</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>69.36649622213091</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>5.090647239429919</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>5.090647239429919</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>5.090647239429919</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>5.090647239429919</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>5.090647239429919</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.090647239429919</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>5.090647239429919</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>65.54208320766023</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>128.5388427956055</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>191.5356023835507</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>254.5323619714959</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>254.5323619714959</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>254.5323619714959</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>190.256512988795</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>125.980664006094</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>125.980664006094</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>125.980664006094</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>125.980664006094</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>125.980664006094</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>125.980664006094</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>125.980664006094</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>34.81979492599199</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>31.42917993820346</v>
       </c>
       <c r="L11" t="n">
-        <v>95.48539806284482</v>
+        <v>23.89450156601852</v>
       </c>
       <c r="M11" t="n">
-        <v>93.29022445704545</v>
+        <v>13.63155801534687</v>
       </c>
       <c r="N11" t="n">
-        <v>92.91229075661933</v>
+        <v>11.96466381132231</v>
       </c>
       <c r="O11" t="n">
-        <v>93.18977562578313</v>
+        <v>16.75322690579426</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>28.41253737042842</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>41.04366499467729</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>58.81494431611752</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>28.43664143721497</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>16.63032124124894</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>3.411388745407642</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>7.908981644977509</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>25.70843422154195</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>43.92968946019</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>51.43314568295542</v>
+        <v>37.04597107107902</v>
       </c>
       <c r="K13" t="n">
-        <v>52.25036955906683</v>
+        <v>28.6078221063498</v>
       </c>
       <c r="L13" t="n">
-        <v>54.62829389390151</v>
+        <v>24.37397299861713</v>
       </c>
       <c r="M13" t="n">
-        <v>56.26494249878004</v>
+        <v>24.3660030835062</v>
       </c>
       <c r="N13" t="n">
-        <v>51.71264550841944</v>
+        <v>20.57219157480551</v>
       </c>
       <c r="O13" t="n">
-        <v>56.07489807299633</v>
+        <v>27.31164863678001</v>
       </c>
       <c r="P13" t="n">
-        <v>55.77984163990478</v>
+        <v>31.16791274233458</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.35952565992557</v>
+        <v>44.31950182682881</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>34.81979492599199</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>31.42917993820346</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>23.89450156601852</v>
       </c>
       <c r="M14" t="n">
-        <v>93.29022445704545</v>
+        <v>13.63155801534687</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>11.96466381132231</v>
       </c>
       <c r="O14" t="n">
-        <v>93.18977562578313</v>
+        <v>16.75322690579426</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>28.41253737042842</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>41.04366499467729</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>58.81494431611752</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>28.43664143721497</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>16.63032124124894</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>3.411388745407642</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>7.908981644977509</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>25.70843422154195</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>43.92968946019</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>51.43314568295542</v>
+        <v>37.04597107107902</v>
       </c>
       <c r="K16" t="n">
-        <v>52.25036955906683</v>
+        <v>28.6078221063498</v>
       </c>
       <c r="L16" t="n">
-        <v>54.62829389390151</v>
+        <v>24.37397299861713</v>
       </c>
       <c r="M16" t="n">
-        <v>56.26494249878004</v>
+        <v>24.3660030835062</v>
       </c>
       <c r="N16" t="n">
-        <v>51.71264550841944</v>
+        <v>20.57219157480551</v>
       </c>
       <c r="O16" t="n">
-        <v>56.07489807299633</v>
+        <v>27.31164863678001</v>
       </c>
       <c r="P16" t="n">
-        <v>55.77984163990478</v>
+        <v>31.16791274233458</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.35952565992557</v>
+        <v>44.31950182682881</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>34.81979492599199</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>31.42917993820346</v>
       </c>
       <c r="L17" t="n">
-        <v>95.48539806284482</v>
+        <v>23.89450156601852</v>
       </c>
       <c r="M17" t="n">
-        <v>93.29022445704545</v>
+        <v>13.63155801534687</v>
       </c>
       <c r="N17" t="n">
-        <v>92.91229075661933</v>
+        <v>11.96466381132231</v>
       </c>
       <c r="O17" t="n">
-        <v>93.18977562578313</v>
+        <v>16.75322690579426</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>28.41253737042842</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>41.04366499467729</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>58.81494431611752</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>28.43664143721497</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>16.63032124124894</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>3.411388745407642</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>7.908981644977509</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>25.70843422154195</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>43.92968946019</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>51.43314568295542</v>
+        <v>37.04597107107902</v>
       </c>
       <c r="K19" t="n">
-        <v>52.25036955906683</v>
+        <v>28.6078221063498</v>
       </c>
       <c r="L19" t="n">
-        <v>54.62829389390151</v>
+        <v>24.37397299861713</v>
       </c>
       <c r="M19" t="n">
-        <v>56.26494249878004</v>
+        <v>24.3660030835062</v>
       </c>
       <c r="N19" t="n">
-        <v>51.71264550841944</v>
+        <v>20.57219157480551</v>
       </c>
       <c r="O19" t="n">
-        <v>56.07489807299633</v>
+        <v>27.31164863678001</v>
       </c>
       <c r="P19" t="n">
-        <v>55.77984163990478</v>
+        <v>31.16791274233458</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.35952565992557</v>
+        <v>44.31950182682881</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>34.81979492599199</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>31.42917993820346</v>
       </c>
       <c r="L20" t="n">
-        <v>95.48539806284482</v>
+        <v>23.89450156601852</v>
       </c>
       <c r="M20" t="n">
-        <v>93.29022445704545</v>
+        <v>13.63155801534687</v>
       </c>
       <c r="N20" t="n">
-        <v>92.91229075661933</v>
+        <v>11.96466381132231</v>
       </c>
       <c r="O20" t="n">
-        <v>93.18977562578313</v>
+        <v>16.75322690579426</v>
       </c>
       <c r="P20" t="n">
-        <v>93.64936328088416</v>
+        <v>28.41253737042842</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>41.04366499467729</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472352</v>
+        <v>58.81494431611752</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>28.43664143721497</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>16.63032124124894</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>3.411388745407642</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>7.908981644977509</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>25.70843422154195</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>43.92968946019</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>51.43314568295542</v>
+        <v>37.04597107107902</v>
       </c>
       <c r="K22" t="n">
-        <v>52.25036955906683</v>
+        <v>28.6078221063498</v>
       </c>
       <c r="L22" t="n">
-        <v>54.62829389390151</v>
+        <v>24.37397299861713</v>
       </c>
       <c r="M22" t="n">
-        <v>56.26494249878004</v>
+        <v>24.3660030835062</v>
       </c>
       <c r="N22" t="n">
-        <v>51.71264550841944</v>
+        <v>20.57219157480551</v>
       </c>
       <c r="O22" t="n">
-        <v>56.07489807299633</v>
+        <v>27.31164863678001</v>
       </c>
       <c r="P22" t="n">
-        <v>55.77984163990478</v>
+        <v>31.16791274233458</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.35952565992557</v>
+        <v>44.31950182682881</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>34.81979492599199</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>31.42917993820345</v>
       </c>
       <c r="L23" t="n">
-        <v>95.48539806284482</v>
+        <v>23.89450156601852</v>
       </c>
       <c r="M23" t="n">
-        <v>93.29022445704545</v>
+        <v>13.63155801534685</v>
       </c>
       <c r="N23" t="n">
-        <v>92.91229075661933</v>
+        <v>11.96466381132231</v>
       </c>
       <c r="O23" t="n">
-        <v>93.18977562578313</v>
+        <v>16.75322690579426</v>
       </c>
       <c r="P23" t="n">
-        <v>93.64936328088416</v>
+        <v>28.41253737042842</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.03380439915205</v>
+        <v>41.04366499467729</v>
       </c>
       <c r="R23" t="n">
-        <v>87.31214281472352</v>
+        <v>58.81494431611752</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>28.43664143721497</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>16.63032124124894</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>3.411388745407635</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>7.908981644977501</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>25.70843422154194</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>43.92968946019</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>51.43314568295542</v>
+        <v>37.04597107107902</v>
       </c>
       <c r="K25" t="n">
-        <v>52.25036955906683</v>
+        <v>28.6078221063498</v>
       </c>
       <c r="L25" t="n">
-        <v>54.62829389390151</v>
+        <v>24.37397299861712</v>
       </c>
       <c r="M25" t="n">
-        <v>56.26494249878004</v>
+        <v>24.3660030835062</v>
       </c>
       <c r="N25" t="n">
-        <v>51.71264550841944</v>
+        <v>20.57219157480551</v>
       </c>
       <c r="O25" t="n">
-        <v>56.07489807299633</v>
+        <v>27.31164863678001</v>
       </c>
       <c r="P25" t="n">
-        <v>55.77984163990478</v>
+        <v>31.16791274233458</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.35952565992557</v>
+        <v>44.31950182682881</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>34.81979492599199</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>31.42917993820346</v>
       </c>
       <c r="L26" t="n">
-        <v>95.48539806284482</v>
+        <v>23.89450156601852</v>
       </c>
       <c r="M26" t="n">
-        <v>93.29022445704545</v>
+        <v>13.63155801534687</v>
       </c>
       <c r="N26" t="n">
-        <v>92.91229075661933</v>
+        <v>11.96466381132231</v>
       </c>
       <c r="O26" t="n">
-        <v>93.18977562578313</v>
+        <v>16.75322690579426</v>
       </c>
       <c r="P26" t="n">
-        <v>93.64936328088416</v>
+        <v>28.41253737042842</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.03380439915205</v>
+        <v>41.04366499467729</v>
       </c>
       <c r="R26" t="n">
-        <v>87.31214281472352</v>
+        <v>58.81494431611752</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>28.43664143721497</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>16.63032124124894</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>3.411388745407642</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>7.908981644977509</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>25.70843422154195</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>43.92968946019</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10030,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>51.43314568295542</v>
+        <v>37.04597107107902</v>
       </c>
       <c r="K28" t="n">
-        <v>52.25036955906683</v>
+        <v>28.6078221063498</v>
       </c>
       <c r="L28" t="n">
-        <v>54.62829389390151</v>
+        <v>24.37397299861713</v>
       </c>
       <c r="M28" t="n">
-        <v>56.26494249878004</v>
+        <v>24.3660030835062</v>
       </c>
       <c r="N28" t="n">
-        <v>51.71264550841944</v>
+        <v>20.57219157480551</v>
       </c>
       <c r="O28" t="n">
-        <v>56.07489807299633</v>
+        <v>27.31164863678001</v>
       </c>
       <c r="P28" t="n">
-        <v>55.77984163990478</v>
+        <v>31.16791274233458</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.35952565992557</v>
+        <v>44.31950182682881</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>34.81979492599199</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>31.42917993820345</v>
       </c>
       <c r="L29" t="n">
-        <v>95.48539806284482</v>
+        <v>23.89450156601852</v>
       </c>
       <c r="M29" t="n">
-        <v>93.29022445704545</v>
+        <v>13.63155801534685</v>
       </c>
       <c r="N29" t="n">
-        <v>92.91229075661933</v>
+        <v>11.96466381132231</v>
       </c>
       <c r="O29" t="n">
-        <v>93.18977562578313</v>
+        <v>16.75322690579426</v>
       </c>
       <c r="P29" t="n">
-        <v>93.64936328088416</v>
+        <v>28.41253737042842</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.03380439915205</v>
+        <v>41.04366499467729</v>
       </c>
       <c r="R29" t="n">
-        <v>87.31214281472352</v>
+        <v>58.81494431611752</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>28.43664143721497</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>16.63032124124894</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>3.411388745407635</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>7.908981644977501</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>25.70843422154194</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>43.92968946019</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>51.43314568295542</v>
+        <v>37.04597107107902</v>
       </c>
       <c r="K31" t="n">
-        <v>52.25036955906683</v>
+        <v>28.6078221063498</v>
       </c>
       <c r="L31" t="n">
-        <v>54.62829389390151</v>
+        <v>24.37397299861712</v>
       </c>
       <c r="M31" t="n">
-        <v>56.26494249878004</v>
+        <v>24.3660030835062</v>
       </c>
       <c r="N31" t="n">
-        <v>51.71264550841944</v>
+        <v>20.57219157480551</v>
       </c>
       <c r="O31" t="n">
-        <v>56.07489807299633</v>
+        <v>27.31164863678001</v>
       </c>
       <c r="P31" t="n">
-        <v>55.77984163990478</v>
+        <v>31.16791274233458</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.35952565992557</v>
+        <v>44.31950182682881</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>34.81979492599199</v>
       </c>
       <c r="K32" t="n">
-        <v>89.13638967321712</v>
+        <v>31.42917993820346</v>
       </c>
       <c r="L32" t="n">
-        <v>95.48539806284482</v>
+        <v>23.89450156601852</v>
       </c>
       <c r="M32" t="n">
-        <v>93.29022445704545</v>
+        <v>13.63155801534687</v>
       </c>
       <c r="N32" t="n">
-        <v>92.91229075661933</v>
+        <v>11.96466381132231</v>
       </c>
       <c r="O32" t="n">
-        <v>93.18977562578313</v>
+        <v>16.75322690579426</v>
       </c>
       <c r="P32" t="n">
-        <v>93.64936328088416</v>
+        <v>28.41253737042842</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>41.04366499467729</v>
       </c>
       <c r="R32" t="n">
-        <v>87.31214281472352</v>
+        <v>58.81494431611752</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>28.43664143721497</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>16.63032124124894</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>3.411388745407642</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>7.908981644977509</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>25.70843422154195</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>43.92968946019</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>51.43314568295542</v>
+        <v>37.04597107107902</v>
       </c>
       <c r="K34" t="n">
-        <v>52.25036955906683</v>
+        <v>28.6078221063498</v>
       </c>
       <c r="L34" t="n">
-        <v>54.62829389390151</v>
+        <v>24.37397299861713</v>
       </c>
       <c r="M34" t="n">
-        <v>56.26494249878004</v>
+        <v>24.3660030835062</v>
       </c>
       <c r="N34" t="n">
-        <v>51.71264550841944</v>
+        <v>20.57219157480551</v>
       </c>
       <c r="O34" t="n">
-        <v>56.07489807299633</v>
+        <v>27.31164863678001</v>
       </c>
       <c r="P34" t="n">
-        <v>55.77984163990478</v>
+        <v>31.16791274233458</v>
       </c>
       <c r="Q34" t="n">
-        <v>61.35952565992557</v>
+        <v>44.31950182682881</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>34.81979492599199</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>31.42917993820346</v>
       </c>
       <c r="L35" t="n">
-        <v>95.48539806284482</v>
+        <v>23.89450156601852</v>
       </c>
       <c r="M35" t="n">
-        <v>93.29022445704545</v>
+        <v>13.63155801534687</v>
       </c>
       <c r="N35" t="n">
-        <v>92.91229075661933</v>
+        <v>11.96466381132231</v>
       </c>
       <c r="O35" t="n">
-        <v>93.18977562578313</v>
+        <v>16.75322690579426</v>
       </c>
       <c r="P35" t="n">
-        <v>93.64936328088416</v>
+        <v>28.41253737042842</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>41.04366499467729</v>
       </c>
       <c r="R35" t="n">
-        <v>87.31214281472352</v>
+        <v>58.81494431611752</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>28.43664143721497</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>16.63032124124894</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>3.411388745407642</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>7.908981644977509</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>25.70843422154195</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>43.92968946019</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>51.43314568295542</v>
+        <v>37.04597107107902</v>
       </c>
       <c r="K37" t="n">
-        <v>52.25036955906683</v>
+        <v>28.6078221063498</v>
       </c>
       <c r="L37" t="n">
-        <v>54.62829389390151</v>
+        <v>24.37397299861713</v>
       </c>
       <c r="M37" t="n">
-        <v>56.26494249878004</v>
+        <v>24.3660030835062</v>
       </c>
       <c r="N37" t="n">
-        <v>51.71264550841944</v>
+        <v>20.57219157480551</v>
       </c>
       <c r="O37" t="n">
-        <v>56.07489807299633</v>
+        <v>27.31164863678001</v>
       </c>
       <c r="P37" t="n">
-        <v>55.77984163990478</v>
+        <v>31.16791274233458</v>
       </c>
       <c r="Q37" t="n">
-        <v>61.35952565992557</v>
+        <v>44.31950182682881</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>34.81979492599199</v>
       </c>
       <c r="K38" t="n">
-        <v>89.13638967321712</v>
+        <v>31.42917993820346</v>
       </c>
       <c r="L38" t="n">
-        <v>95.48539806284482</v>
+        <v>23.89450156601852</v>
       </c>
       <c r="M38" t="n">
-        <v>93.29022445704545</v>
+        <v>13.63155801534687</v>
       </c>
       <c r="N38" t="n">
-        <v>92.91229075661933</v>
+        <v>11.96466381132231</v>
       </c>
       <c r="O38" t="n">
-        <v>93.18977562578313</v>
+        <v>16.75322690579426</v>
       </c>
       <c r="P38" t="n">
-        <v>93.64936328088416</v>
+        <v>28.41253737042842</v>
       </c>
       <c r="Q38" t="n">
-        <v>90.03380439915205</v>
+        <v>41.04366499467729</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>58.81494431611752</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>28.43664143721497</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>16.63032124124894</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>3.411388745407642</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>7.908981644977509</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>25.70843422154195</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>43.92968946019</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>51.43314568295542</v>
+        <v>37.04597107107902</v>
       </c>
       <c r="K40" t="n">
-        <v>52.25036955906683</v>
+        <v>28.6078221063498</v>
       </c>
       <c r="L40" t="n">
-        <v>54.62829389390151</v>
+        <v>24.37397299861713</v>
       </c>
       <c r="M40" t="n">
-        <v>56.26494249878004</v>
+        <v>24.3660030835062</v>
       </c>
       <c r="N40" t="n">
-        <v>51.71264550841944</v>
+        <v>20.57219157480551</v>
       </c>
       <c r="O40" t="n">
-        <v>56.07489807299633</v>
+        <v>27.31164863678001</v>
       </c>
       <c r="P40" t="n">
-        <v>55.77984163990478</v>
+        <v>31.16791274233458</v>
       </c>
       <c r="Q40" t="n">
-        <v>61.35952565992557</v>
+        <v>44.31950182682881</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>34.81979492599199</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>31.42917993820346</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>23.89450156601852</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>13.63155801534687</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>11.96466381132231</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>16.75322690579426</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>28.41253737042842</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>41.04366499467729</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>58.81494431611752</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>28.43664143721497</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>16.63032124124894</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>3.411388745407642</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>7.908981644977509</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>25.70843422154195</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>43.92968946019</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>51.43314568295542</v>
+        <v>37.04597107107902</v>
       </c>
       <c r="K43" t="n">
-        <v>52.25036955906683</v>
+        <v>28.6078221063498</v>
       </c>
       <c r="L43" t="n">
-        <v>54.62829389390151</v>
+        <v>24.37397299861713</v>
       </c>
       <c r="M43" t="n">
-        <v>56.26494249878004</v>
+        <v>24.3660030835062</v>
       </c>
       <c r="N43" t="n">
-        <v>51.71264550841944</v>
+        <v>20.57219157480551</v>
       </c>
       <c r="O43" t="n">
-        <v>56.07489807299633</v>
+        <v>27.31164863678001</v>
       </c>
       <c r="P43" t="n">
-        <v>55.77984163990478</v>
+        <v>31.16791274233458</v>
       </c>
       <c r="Q43" t="n">
-        <v>61.35952565992557</v>
+        <v>44.31950182682881</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>2.872130654231412</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>19.95498585971613</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>0.3951920554341797</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>35.17003094995919</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>9.408831460365207</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>31.4252710008666</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>51.43314568295542</v>
+        <v>25.1085345789182</v>
       </c>
       <c r="K46" t="n">
-        <v>52.25036955906683</v>
+        <v>8.990946914140032</v>
       </c>
       <c r="L46" t="n">
-        <v>54.62829389390151</v>
+        <v>60.33318313989838</v>
       </c>
       <c r="M46" t="n">
-        <v>56.26494249878004</v>
+        <v>61.53166173449653</v>
       </c>
       <c r="N46" t="n">
-        <v>51.71264550841944</v>
+        <v>58.36718659737689</v>
       </c>
       <c r="O46" t="n">
-        <v>56.07489807299633</v>
+        <v>67.07907594589204</v>
       </c>
       <c r="P46" t="n">
-        <v>55.77984163990478</v>
+        <v>10.74671496790901</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.35952565992557</v>
+        <v>30.18092300089421</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>404.1873416079885</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>303.153370424964</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>67.99853108690158</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>123.5904949947116</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>217.9985240592434</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>254.4535940504364</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23349,13 +23351,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>105.9202115588047</v>
+        <v>105.6774822426766</v>
       </c>
       <c r="H12" t="n">
-        <v>70.03974083464111</v>
+        <v>67.69548664993043</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596223</v>
+        <v>12.18397769576295</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>106.9101097868343</v>
+        <v>102.4015191999815</v>
       </c>
       <c r="T12" t="n">
-        <v>157.7484451748619</v>
+        <v>156.7700756945035</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3773027531635</v>
+        <v>195.3613337192077</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
@@ -23428,13 +23430,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>165.3743910588764</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>146.3021152741505</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>109.062902574934</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>75.27006628211034</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>180.9814683209813</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>236.2837682760401</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>279.9590661918006</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -23507,13 +23509,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>404.1873416079885</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>303.153370424964</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>67.99853108690158</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>123.5904949947116</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>217.9985240592434</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>254.4535940504364</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -23586,13 +23588,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>105.9202115588047</v>
+        <v>105.6774822426766</v>
       </c>
       <c r="H15" t="n">
-        <v>70.03974083464111</v>
+        <v>67.69548664993043</v>
       </c>
       <c r="I15" t="n">
-        <v>20.54110546596223</v>
+        <v>12.18397769576295</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>106.9101097868343</v>
+        <v>102.4015191999815</v>
       </c>
       <c r="T15" t="n">
-        <v>157.7484451748619</v>
+        <v>156.7700756945035</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3773027531635</v>
+        <v>195.3613337192077</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -23665,13 +23667,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>165.3743910588764</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>146.3021152741505</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>109.062902574934</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>75.27006628211034</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>180.9814683209813</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>236.2837682760401</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>279.9590661918006</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -23744,13 +23746,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>404.1873416079885</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>303.153370424964</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>67.99853108690158</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>123.5904949947116</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>217.9985240592434</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>254.4535940504364</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23823,13 +23825,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>105.9202115588047</v>
+        <v>105.6774822426766</v>
       </c>
       <c r="H18" t="n">
-        <v>70.03974083464111</v>
+        <v>67.69548664993043</v>
       </c>
       <c r="I18" t="n">
-        <v>20.54110546596223</v>
+        <v>12.18397769576295</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>106.9101097868343</v>
+        <v>102.4015191999815</v>
       </c>
       <c r="T18" t="n">
-        <v>157.7484451748619</v>
+        <v>156.7700756945035</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3773027531635</v>
+        <v>195.3613337192077</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
@@ -23902,13 +23904,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>165.3743910588764</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>146.3021152741505</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>109.062902574934</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>75.27006628211034</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>180.9814683209813</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>236.2837682760401</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>279.9590661918006</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23981,13 +23983,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>404.1873416079885</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>303.153370424964</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>67.99853108690158</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>123.5904949947116</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>217.9985240592434</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>254.4535940504364</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24060,13 +24062,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>105.9202115588047</v>
+        <v>105.6774822426766</v>
       </c>
       <c r="H21" t="n">
-        <v>70.03974083464111</v>
+        <v>67.69548664993043</v>
       </c>
       <c r="I21" t="n">
-        <v>20.54110546596223</v>
+        <v>12.18397769576295</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>106.9101097868343</v>
+        <v>102.4015191999815</v>
       </c>
       <c r="T21" t="n">
-        <v>157.7484451748619</v>
+        <v>156.7700756945035</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3773027531635</v>
+        <v>195.3613337192077</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
@@ -24139,13 +24141,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>165.3743910588764</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>146.3021152741505</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>109.062902574934</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>75.27006628211034</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>180.9814683209813</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>236.2837682760401</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>279.9590661918006</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24218,13 +24220,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>404.1873416079885</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>303.153370424964</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>67.99853108690158</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>123.5904949947116</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>217.9985240592434</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>254.4535940504364</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24297,13 +24299,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>105.9202115588047</v>
+        <v>105.6774822426766</v>
       </c>
       <c r="H24" t="n">
-        <v>70.03974083464111</v>
+        <v>67.69548664993043</v>
       </c>
       <c r="I24" t="n">
-        <v>20.54110546596223</v>
+        <v>12.18397769576295</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,13 +24335,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>106.9101097868343</v>
+        <v>102.4015191999815</v>
       </c>
       <c r="T24" t="n">
-        <v>157.7484451748619</v>
+        <v>156.7700756945035</v>
       </c>
       <c r="U24" t="n">
-        <v>195.3773027531635</v>
+        <v>195.3613337192077</v>
       </c>
       <c r="V24" t="n">
         <v>211.5744117368965</v>
@@ -24376,13 +24378,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>165.3743910588764</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>146.3021152741505</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>109.062902574934</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>75.27006628211034</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>180.9814683209813</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>236.2837682760401</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>279.9590661918006</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -24455,13 +24457,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>404.1873416079885</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>303.153370424964</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>67.99853108690158</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>123.5904949947116</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>217.9985240592434</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>254.4535940504364</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -24534,13 +24536,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>105.9202115588047</v>
+        <v>105.6774822426766</v>
       </c>
       <c r="H27" t="n">
-        <v>70.03974083464111</v>
+        <v>67.69548664993043</v>
       </c>
       <c r="I27" t="n">
-        <v>20.54110546596223</v>
+        <v>12.18397769576295</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,13 +24572,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>106.9101097868343</v>
+        <v>102.4015191999815</v>
       </c>
       <c r="T27" t="n">
-        <v>157.7484451748619</v>
+        <v>156.7700756945035</v>
       </c>
       <c r="U27" t="n">
-        <v>195.3773027531635</v>
+        <v>195.3613337192077</v>
       </c>
       <c r="V27" t="n">
         <v>211.5744117368965</v>
@@ -24613,13 +24615,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>165.3743910588764</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>146.3021152741505</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>109.062902574934</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>75.27006628211034</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>180.9814683209813</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>236.2837682760401</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>279.9590661918006</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24692,13 +24694,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>404.1873416079885</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>303.153370424964</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>67.99853108690158</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>123.5904949947116</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>217.9985240592434</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>254.4535940504364</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24771,13 +24773,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>105.9202115588047</v>
+        <v>105.6774822426766</v>
       </c>
       <c r="H30" t="n">
-        <v>70.03974083464111</v>
+        <v>67.69548664993043</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596223</v>
+        <v>12.18397769576295</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>106.9101097868343</v>
+        <v>102.4015191999815</v>
       </c>
       <c r="T30" t="n">
-        <v>157.7484451748619</v>
+        <v>156.7700756945035</v>
       </c>
       <c r="U30" t="n">
-        <v>195.3773027531635</v>
+        <v>195.3613337192077</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
@@ -24850,13 +24852,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>165.3743910588764</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>146.3021152741505</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>109.062902574934</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>75.27006628211034</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>180.9814683209813</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>236.2837682760401</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>279.9590661918006</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24929,13 +24931,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>404.1873416079885</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>303.153370424964</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>67.99853108690158</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>123.5904949947116</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>217.9985240592434</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>254.4535940504364</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -25008,13 +25010,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>105.9202115588047</v>
+        <v>105.6774822426766</v>
       </c>
       <c r="H33" t="n">
-        <v>70.03974083464111</v>
+        <v>67.69548664993043</v>
       </c>
       <c r="I33" t="n">
-        <v>20.54110546596223</v>
+        <v>12.18397769576295</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,13 +25046,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>106.9101097868343</v>
+        <v>102.4015191999815</v>
       </c>
       <c r="T33" t="n">
-        <v>157.7484451748619</v>
+        <v>156.7700756945035</v>
       </c>
       <c r="U33" t="n">
-        <v>195.3773027531635</v>
+        <v>195.3613337192077</v>
       </c>
       <c r="V33" t="n">
         <v>211.5744117368965</v>
@@ -25087,13 +25089,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>165.3743910588764</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>146.3021152741505</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>109.062902574934</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>75.27006628211034</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>180.9814683209813</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>236.2837682760401</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>279.9590661918006</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25166,13 +25168,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>404.1873416079885</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>303.153370424964</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>67.99853108690158</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>123.5904949947116</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>217.9985240592434</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>254.4535940504364</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25245,13 +25247,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>105.9202115588047</v>
+        <v>105.6774822426766</v>
       </c>
       <c r="H36" t="n">
-        <v>70.03974083464111</v>
+        <v>67.69548664993043</v>
       </c>
       <c r="I36" t="n">
-        <v>20.54110546596223</v>
+        <v>12.18397769576295</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>106.9101097868343</v>
+        <v>102.4015191999815</v>
       </c>
       <c r="T36" t="n">
-        <v>157.7484451748619</v>
+        <v>156.7700756945035</v>
       </c>
       <c r="U36" t="n">
-        <v>195.3773027531635</v>
+        <v>195.3613337192077</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -25324,13 +25326,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>165.3743910588764</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>146.3021152741505</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>109.062902574934</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>75.27006628211034</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>180.9814683209813</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>236.2837682760401</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>279.9590661918006</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -25403,13 +25405,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>404.1873416079885</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>303.153370424964</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>67.99853108690158</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>123.5904949947116</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>217.9985240592434</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>254.4535940504364</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -25482,13 +25484,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>105.9202115588047</v>
+        <v>105.6774822426766</v>
       </c>
       <c r="H39" t="n">
-        <v>70.03974083464111</v>
+        <v>67.69548664993043</v>
       </c>
       <c r="I39" t="n">
-        <v>20.54110546596223</v>
+        <v>12.18397769576295</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,13 +25520,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>106.9101097868343</v>
+        <v>102.4015191999815</v>
       </c>
       <c r="T39" t="n">
-        <v>157.7484451748619</v>
+        <v>156.7700756945035</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3773027531635</v>
+        <v>195.3613337192077</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
@@ -25561,13 +25563,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>165.3743910588764</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>146.3021152741505</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>109.062902574934</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>75.27006628211034</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>180.9814683209813</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>236.2837682760401</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>279.9590661918006</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25640,13 +25642,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>404.1873416079885</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>303.153370424964</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>67.99853108690158</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>123.5904949947116</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>217.9985240592434</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>254.4535940504364</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -25719,13 +25721,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>105.9202115588047</v>
+        <v>105.6774822426766</v>
       </c>
       <c r="H42" t="n">
-        <v>70.03974083464111</v>
+        <v>67.69548664993043</v>
       </c>
       <c r="I42" t="n">
-        <v>20.54110546596223</v>
+        <v>12.18397769576295</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>106.9101097868343</v>
+        <v>102.4015191999815</v>
       </c>
       <c r="T42" t="n">
-        <v>157.7484451748619</v>
+        <v>156.7700756945035</v>
       </c>
       <c r="U42" t="n">
-        <v>195.3773027531635</v>
+        <v>195.3613337192077</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -25798,13 +25800,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>165.3743910588764</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>146.3021152741505</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>109.062902574934</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>75.27006628211034</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>180.9814683209813</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>236.2837682760401</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>279.9590661918006</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25868,7 +25870,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>336.7862001149961</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -25877,13 +25879,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>347.7629015426402</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>299.2984209650525</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>53.48683192388533</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>115.0129618988752</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>216.3507719527366</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>190.7903904408244</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>282.7060886240101</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -25950,19 +25952,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>68.4896995032359</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>44.23719052644648</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>105.4760830191159</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>65.75039414869914</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,19 +25994,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>98.66061695533371</v>
       </c>
       <c r="T45" t="n">
-        <v>157.7484451748619</v>
+        <v>155.9582954907653</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3773027531635</v>
+        <v>131.7149932774152</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>147.4677460881605</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
@@ -26026,22 +26028,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>101.8516721241957</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>95.66861648748974</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>165.2055447152815</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>144.8009177829157</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>103.9852325330068</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>4.045030194504783</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>114.4058465492759</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>235.5623338988618</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>279.9498563912409</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>155207.2728218809</v>
+        <v>147935.7948988661</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>155207.2728218809</v>
+        <v>147935.7948988661</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>155207.2728218809</v>
+        <v>147935.7948988661</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>155207.2728218809</v>
+        <v>147935.7948988661</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>155207.2728218809</v>
+        <v>147935.7948988661</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155207.2728218809</v>
+        <v>147935.7948988661</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>155207.2728218809</v>
+        <v>147935.7948988661</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>155207.2728218809</v>
+        <v>147935.7948988661</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>155207.2728218809</v>
+        <v>147935.7948988661</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>155207.2728218809</v>
+        <v>147935.7948988661</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>155207.2728218809</v>
+        <v>147935.7948988661</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>155207.2728218809</v>
+        <v>199520.4730146218</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>33951.59092978646</v>
       </c>
       <c r="E2" t="n">
-        <v>33951.59092978646</v>
+        <v>35351.71294973807</v>
       </c>
       <c r="F2" t="n">
-        <v>33951.59092978646</v>
+        <v>35351.71294973807</v>
       </c>
       <c r="G2" t="n">
-        <v>33951.59092978646</v>
+        <v>35351.71294973806</v>
       </c>
       <c r="H2" t="n">
-        <v>33951.59092978646</v>
+        <v>35351.71294973808</v>
       </c>
       <c r="I2" t="n">
-        <v>33951.59092978646</v>
+        <v>35351.71294973805</v>
       </c>
       <c r="J2" t="n">
-        <v>33951.59092978647</v>
+        <v>35351.71294973807</v>
       </c>
       <c r="K2" t="n">
-        <v>33951.59092978646</v>
+        <v>35351.71294973807</v>
       </c>
       <c r="L2" t="n">
-        <v>33951.59092978646</v>
+        <v>35351.71294973807</v>
       </c>
       <c r="M2" t="n">
-        <v>33951.59092978646</v>
+        <v>35351.71294973807</v>
       </c>
       <c r="N2" t="n">
-        <v>33951.59092978647</v>
+        <v>35351.71294973807</v>
       </c>
       <c r="O2" t="n">
-        <v>33951.59092978647</v>
+        <v>35351.71294973807</v>
       </c>
       <c r="P2" t="n">
-        <v>33951.59092978646</v>
+        <v>49132.43980101508</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>90662.29316279097</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>77361.06734176687</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26426,40 @@
         <v>19400.90910273512</v>
       </c>
       <c r="E4" t="n">
-        <v>19400.90910273512</v>
+        <v>6528.943099913911</v>
       </c>
       <c r="F4" t="n">
-        <v>19400.90910273512</v>
+        <v>6528.943099913911</v>
       </c>
       <c r="G4" t="n">
-        <v>19400.90910273512</v>
+        <v>6528.943099913911</v>
       </c>
       <c r="H4" t="n">
-        <v>19400.90910273512</v>
+        <v>6528.943099913911</v>
       </c>
       <c r="I4" t="n">
-        <v>19400.90910273512</v>
+        <v>6528.94309991391</v>
       </c>
       <c r="J4" t="n">
-        <v>19400.90910273512</v>
+        <v>6528.943099913911</v>
       </c>
       <c r="K4" t="n">
-        <v>19400.90910273512</v>
+        <v>6528.94309991391</v>
       </c>
       <c r="L4" t="n">
-        <v>19400.90910273512</v>
+        <v>6528.943099913911</v>
       </c>
       <c r="M4" t="n">
-        <v>19400.90910273512</v>
+        <v>6528.943099913911</v>
       </c>
       <c r="N4" t="n">
-        <v>19400.90910273512</v>
+        <v>6528.943099913911</v>
       </c>
       <c r="O4" t="n">
-        <v>19400.90910273512</v>
+        <v>6528.943099913911</v>
       </c>
       <c r="P4" t="n">
-        <v>19400.90910273512</v>
+        <v>3045.893341396184</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2460.082911003373</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2460.082911003373</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2460.082911003373</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2460.082911003373</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2460.082911003373</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2460.082911003373</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2460.082911003373</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2460.082911003373</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2460.082911003373</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2460.082911003373</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2460.082911003373</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>8370.173610356696</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19076.91817294866</v>
+        <v>-19076.91817294865</v>
       </c>
       <c r="C6" t="n">
         <v>-19076.91817294865</v>
       </c>
       <c r="D6" t="n">
-        <v>-19076.91817294866</v>
+        <v>-19076.91817294865</v>
       </c>
       <c r="E6" t="n">
-        <v>14550.68182705135</v>
+        <v>-64299.60622397018</v>
       </c>
       <c r="F6" t="n">
-        <v>14550.68182705135</v>
+        <v>26362.68693882079</v>
       </c>
       <c r="G6" t="n">
-        <v>14550.68182705135</v>
+        <v>26362.68693882077</v>
       </c>
       <c r="H6" t="n">
-        <v>14550.68182705135</v>
+        <v>26362.6869388208</v>
       </c>
       <c r="I6" t="n">
-        <v>14550.68182705135</v>
+        <v>26362.68693882077</v>
       </c>
       <c r="J6" t="n">
-        <v>14550.68182705135</v>
+        <v>26362.68693882079</v>
       </c>
       <c r="K6" t="n">
-        <v>14550.68182705135</v>
+        <v>26362.68693882079</v>
       </c>
       <c r="L6" t="n">
-        <v>14550.68182705135</v>
+        <v>26362.68693882078</v>
       </c>
       <c r="M6" t="n">
-        <v>14550.68182705135</v>
+        <v>26362.68693882078</v>
       </c>
       <c r="N6" t="n">
-        <v>14550.68182705135</v>
+        <v>26362.68693882078</v>
       </c>
       <c r="O6" t="n">
-        <v>14550.68182705135</v>
+        <v>26362.68693882079</v>
       </c>
       <c r="P6" t="n">
-        <v>14550.68182705135</v>
+        <v>-39644.69449250467</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>112.8478399542832</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>112.8478399542832</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>112.8478399542832</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.8478399542832</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>112.8478399542832</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>112.8478399542832</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>112.8478399542832</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>112.8478399542832</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>112.8478399542832</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>112.8478399542832</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>112.8478399542832</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>206.480812311466</v>
       </c>
     </row>
     <row r="4">
@@ -26829,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>63.63309049287398</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>112.8478399542832</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>93.63297235718279</v>
       </c>
     </row>
     <row r="4">
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>63.63309049287398</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.4536596581076707</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>4.646041973595183</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>17.48971396919599</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>38.50379640731595</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>57.70720973501366</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>71.5908964968263</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>79.65866644169859</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>80.94762694529702</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>76.43654871998886</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>65.23682591045574</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>48.99013940447476</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>28.497198498606</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>10.33776945912856</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.98589515336633</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.03629277264861365</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.2427293161280808</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.344254184710675</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8.357127770199273</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>22.93259736278504</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.19546154336646</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>52.70313506544141</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>46.35065335782624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>30.98418428329677</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>15.07050964521541</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>4.508590586852725</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.9783694803583604</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.01596903395579479</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.2034961048355926</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.809265368447361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>6.119682861783096</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>14.38717461187639</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>23.64254745271703</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>30.25432089528438</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>31.89893941527384</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>31.14045393361393</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>28.76324943621632</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>24.61192889757021</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>17.04002383309676</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>9.149924859244006</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3.546382117907553</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.8694833570248045</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.01109978753648688</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.4536596581076707</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>4.646041973595183</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>17.48971396919599</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>38.50379640731595</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>57.70720973501366</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>71.5908964968263</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>79.65866644169859</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>80.94762694529702</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>76.43654871998886</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>65.23682591045574</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>48.99013940447476</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>28.497198498606</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>10.33776945912856</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.98589515336633</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.03629277264861365</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.2427293161280808</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2.344254184710675</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>8.357127770199273</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>22.93259736278504</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.19546154336646</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>52.70313506544141</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>46.35065335782624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>30.98418428329677</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>15.07050964521541</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>4.508590586852725</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.9783694803583604</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.01596903395579479</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.2034961048355926</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.809265368447361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>6.119682861783096</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>14.38717461187639</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>23.64254745271703</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>30.25432089528438</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>31.89893941527384</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>31.14045393361393</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>28.76324943621632</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>24.61192889757021</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>17.04002383309676</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.149924859244006</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>3.546382117907553</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.8694833570248045</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.01109978753648688</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.4536596581076707</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>4.646041973595183</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>17.48971396919599</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>38.50379640731595</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>57.70720973501366</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>71.5908964968263</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>79.65866644169859</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>80.94762694529702</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>76.43654871998886</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>65.23682591045574</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>48.99013940447476</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>28.497198498606</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>10.33776945912856</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.98589515336633</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.03629277264861365</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.2427293161280808</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2.344254184710675</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>8.357127770199273</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>22.93259736278504</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>39.19546154336646</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>52.70313506544141</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>46.35065335782624</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>30.98418428329677</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>15.07050964521541</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>4.508590586852725</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>0.9783694803583604</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.01596903395579479</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.2034961048355926</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.809265368447361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>6.119682861783096</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>14.38717461187639</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>23.64254745271703</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>30.25432089528438</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>31.89893941527384</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>31.14045393361393</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>28.76324943621632</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>24.61192889757021</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>17.04002383309676</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.149924859244006</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>3.546382117907553</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.8694833570248045</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.01109978753648688</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.4536596581076707</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>4.646041973595183</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>17.48971396919599</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>38.50379640731595</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>57.70720973501366</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>71.5908964968263</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>79.65866644169859</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>80.94762694529702</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>76.43654871998886</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>65.23682591045574</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>48.99013940447476</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>28.497198498606</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>10.33776945912856</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.98589515336633</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.03629277264861365</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.2427293161280808</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2.344254184710675</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>8.357127770199273</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>22.93259736278504</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>39.19546154336646</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>52.70313506544141</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>46.35065335782624</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>30.98418428329677</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>15.07050964521541</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>4.508590586852725</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>0.9783694803583604</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.01596903395579479</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.2034961048355926</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.809265368447361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>6.119682861783096</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>14.38717461187639</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>23.64254745271703</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>30.25432089528438</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>31.89893941527384</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>31.14045393361393</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>28.76324943621632</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>24.61192889757021</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>17.04002383309676</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.149924859244006</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.546382117907553</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.8694833570248045</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.01109978753648688</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.4536596581076707</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>4.646041973595184</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>17.48971396919599</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>38.50379640731595</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>57.70720973501367</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>71.5908964968263</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>79.6586664416986</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>80.94762694529702</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>76.43654871998886</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>65.23682591045574</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>48.99013940447476</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>28.497198498606</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>10.33776945912856</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.985895153366329</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.03629277264861365</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.2427293161280808</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2.344254184710675</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>8.357127770199273</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>22.93259736278504</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>39.19546154336646</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>52.70313506544142</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>46.35065335782625</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>30.98418428329678</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>15.07050964521541</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>4.508590586852725</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>0.9783694803583604</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.0159690339557948</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.2034961048355926</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.809265368447361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>6.119682861783096</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>14.38717461187639</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>23.64254745271703</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>30.25432089528438</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>31.89893941527384</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>31.14045393361393</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>28.76324943621632</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>24.61192889757021</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>17.04002383309676</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.149924859244006</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>3.546382117907553</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.8694833570248045</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.01109978753648688</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.4536596581076707</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>4.646041973595183</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>17.48971396919599</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>38.50379640731595</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>57.70720973501366</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>71.5908964968263</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>79.65866644169859</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>80.94762694529702</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>76.43654871998886</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>65.23682591045574</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>48.99013940447476</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>28.497198498606</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>10.33776945912856</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.98589515336633</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.03629277264861365</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.2427293161280808</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2.344254184710675</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>8.357127770199273</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>22.93259736278504</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>39.19546154336646</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>52.70313506544141</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>46.35065335782624</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>30.98418428329677</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>15.07050964521541</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>4.508590586852725</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>0.9783694803583604</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.01596903395579479</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.2034961048355926</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.809265368447361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>6.119682861783096</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>14.38717461187639</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>23.64254745271703</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>30.25432089528438</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>31.89893941527384</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>31.14045393361393</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>28.76324943621632</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>24.61192889757021</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>17.04002383309676</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.149924859244006</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>3.546382117907553</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.8694833570248045</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.01109978753648688</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.4536596581076707</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>4.646041973595184</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>17.48971396919599</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>38.50379640731595</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>57.70720973501367</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>71.5908964968263</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>79.6586664416986</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>80.94762694529702</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>76.43654871998886</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>65.23682591045574</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>48.99013940447476</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>28.497198498606</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>10.33776945912856</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.985895153366329</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.03629277264861365</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.2427293161280808</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2.344254184710675</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.357127770199273</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>22.93259736278504</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>39.19546154336646</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>52.70313506544142</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>46.35065335782625</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>30.98418428329678</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>15.07050964521541</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>4.508590586852725</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>0.9783694803583604</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.0159690339557948</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.2034961048355926</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.809265368447361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>6.119682861783096</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>14.38717461187639</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>23.64254745271703</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>30.25432089528438</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>31.89893941527384</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>31.14045393361393</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>28.76324943621632</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>24.61192889757021</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>17.04002383309676</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.149924859244006</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>3.546382117907553</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.8694833570248045</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.01109978753648688</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.4536596581076707</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>4.646041973595183</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>17.48971396919599</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>38.50379640731595</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>57.70720973501366</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>71.5908964968263</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>79.65866644169859</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>80.94762694529702</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>76.43654871998886</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>65.23682591045574</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>48.99013940447476</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>28.497198498606</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>10.33776945912856</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.98589515336633</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.03629277264861365</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.2427293161280808</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2.344254184710675</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.357127770199273</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>22.93259736278504</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>39.19546154336646</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>52.70313506544141</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>46.35065335782624</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>30.98418428329677</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>15.07050964521541</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>4.508590586852725</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.9783694803583604</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.01596903395579479</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.2034961048355926</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.809265368447361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6.119682861783096</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>14.38717461187639</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>23.64254745271703</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>30.25432089528438</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>31.89893941527384</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>31.14045393361393</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>28.76324943621632</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>24.61192889757021</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>17.04002383309676</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.149924859244006</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>3.546382117907553</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.8694833570248045</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.01109978753648688</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.4536596581076707</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>4.646041973595183</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>17.48971396919599</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>38.50379640731595</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>57.70720973501366</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>71.5908964968263</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>79.65866644169859</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>80.94762694529702</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>76.43654871998886</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>65.23682591045574</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>48.99013940447476</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>28.497198498606</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>10.33776945912856</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.98589515336633</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.03629277264861365</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.2427293161280808</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2.344254184710675</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>8.357127770199273</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>22.93259736278504</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>39.19546154336646</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>52.70313506544141</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>46.35065335782624</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>30.98418428329677</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>15.07050964521541</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>4.508590586852725</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>0.9783694803583604</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.01596903395579479</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.2034961048355926</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.809265368447361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>6.119682861783096</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>14.38717461187639</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>23.64254745271703</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>30.25432089528438</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>31.89893941527384</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>31.14045393361393</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>28.76324943621632</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>24.61192889757021</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>17.04002383309676</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.149924859244006</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>3.546382117907553</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.8694833570248045</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.01109978753648688</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.4536596581076707</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>4.646041973595183</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>17.48971396919599</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>38.50379640731595</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>57.70720973501366</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>71.5908964968263</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>79.65866644169859</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>80.94762694529702</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>76.43654871998886</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>65.23682591045574</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>48.99013940447476</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>28.497198498606</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>10.33776945912856</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.98589515336633</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.03629277264861365</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.2427293161280808</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2.344254184710675</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>8.357127770199273</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>22.93259736278504</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>39.19546154336646</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>52.70313506544141</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>46.35065335782624</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>30.98418428329677</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>15.07050964521541</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>4.508590586852725</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.9783694803583604</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.01596903395579479</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.2034961048355926</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.809265368447361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>6.119682861783096</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>14.38717461187639</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>23.64254745271703</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>30.25432089528438</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>31.89893941527384</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>31.14045393361393</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>28.76324943621632</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>24.61192889757021</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>17.04002383309676</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.149924859244006</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>3.546382117907553</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>0.8694833570248045</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.01109978753648688</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.4536596581076707</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>4.646041973595183</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>17.48971396919599</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>38.50379640731595</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>57.70720973501366</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>71.5908964968263</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>79.65866644169859</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>80.94762694529702</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>76.43654871998886</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>65.23682591045574</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>48.99013940447476</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>28.497198498606</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>10.33776945912856</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.98589515336633</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.03629277264861365</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.2427293161280808</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2.344254184710675</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>8.357127770199273</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>22.93259736278504</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>39.19546154336646</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>52.70313506544141</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>46.35065335782624</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>30.98418428329677</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>15.07050964521541</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>4.508590586852725</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>0.9783694803583604</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.01596903395579479</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.2034961048355926</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.809265368447361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>6.119682861783096</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>14.38717461187639</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>23.64254745271703</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>30.25432089528438</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>31.89893941527384</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>31.14045393361393</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>28.76324943621632</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>24.61192889757021</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>17.04002383309676</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.149924859244006</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>3.546382117907553</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.8694833570248045</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.01109978753648688</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.8300736173325258</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>8.500991433506734</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>32.00141313221224</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>70.45146067907653</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>105.5884769007624</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.9918423672027</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>145.75366405944</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>148.112110724686</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>139.8580661923357</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>119.365623764439</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>89.63861234371787</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>52.14211186476432</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>18.91530255496495</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>3.633647259873134</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.06640588938660205</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.4441285396888136</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>4.289346685941964</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>15.29126770419819</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>41.96040733963481</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>71.71701949878532</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>96.43238314602947</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>112.5320427097489</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>115.5104310307323</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>105.6694775986801</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>84.80907175864724</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>56.69261850483874</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>27.57492810453881</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>8.249492831500545</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.790149684096577</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.02921898287426406</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.3723424484305123</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.310462859682194</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>11.19735290371032</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>26.32461110403722</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>43.25942264492679</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>55.35716728756909</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>58.36637125715749</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>56.97854940391654</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>52.62891261997826</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>45.03312667199577</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>31.17860265903136</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>16.74187045397558</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>6.488913396739018</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.590917734203098</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.02030958809620979</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>16.45208722754525</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>35.50644430435786</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>52.46343960239453</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>55.19981996806671</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>46.66829056655261</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>45.67124634327094</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>15.89123671416993</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>40.31785933518042</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>54.96775897133151</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>62.31703763698228</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>47.91799859868014</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>30.54943675584349</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38178,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>61.06205653356596</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>63.63309049287398</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>63.63309049287398</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>63.63309049287398</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37591.51477200969</v>
+        <v>25814.17875929877</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24644001.9952638</v>
+        <v>24780044.52773237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20576244.27602931</v>
+        <v>20482847.47357256</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1761374.822059206</v>
+        <v>1793338.092734826</v>
       </c>
     </row>
     <row r="11">
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>13.19650969861341</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2456,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>13.19650969861341</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>13.19650969861341</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>13.19650969861341</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2690,13 +2690,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>13.19650969861341</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>13.19650969861341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>13.19650969861341</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
     </row>
     <row r="30">
@@ -2879,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>13.19650969861341</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>13.19650969861341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>13.19650969861341</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3158,19 +3158,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>13.19650969861341</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>13.19650969861341</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
     </row>
     <row r="35">
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>13.19650969861341</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3353,13 +3353,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>13.19650969861341</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>13.19650969861341</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>13.19650969861341</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.01589568246906</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3644,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>3.180614016144348</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>13.19650969861341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>13.1965096986134</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>13.1965096986134</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>13.1965096986134</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>63.63309049287398</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>56.04802610612342</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>13.1965096986134</v>
       </c>
       <c r="U44" t="n">
-        <v>63.63309049287398</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>63.63309049287398</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4064,19 +4064,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>50.79818834435938</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>63.63309049287398</v>
+        <v>13.1965096986134</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>5.249837761764036</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="U45" t="n">
-        <v>63.63309049287398</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>63.63309049287398</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="D46" t="n">
-        <v>56.04802610612342</v>
+        <v>13.1965096986134</v>
       </c>
       <c r="E46" t="n">
-        <v>63.63309049287398</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>63.63309049287398</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>63.63309049287398</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>16.0311823087152</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>30.86377154761991</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>45.09706425161939</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>11.35731707395025</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>26.18990631285497</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>41.02249555175968</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>55.8550847906644</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>46.59984571414692</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>31.46609483270144</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>16.0311823087152</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>16.0311823087152</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>30.26447501271467</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>30.26447501271467</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>30.26447501271467</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>45.09706425161939</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>14.52840084618766</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>14.52840084618766</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>14.52840084618766</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>14.52840084618766</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>16.0311823087152</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>16.0311823087152</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>30.86377154761991</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>39.80892150318143</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>45.09706425161939</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>45.09706425161939</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>45.09706425161939</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>14.52840084618766</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>14.52840084618766</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>14.52840084618766</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>14.52840084618766</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>11.35731707395025</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>26.18990631285497</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>41.02249555175968</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>55.8550847906644</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>16.0311823087152</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>30.86377154761991</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>45.69636078652463</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>14.52840084618766</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>14.52840084618766</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>16.0311823087152</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>30.86377154761991</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>30.86377154761991</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>37.82764633518437</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>46.77279629074589</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>31.46609483270144</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1.198593069810485</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1.198593069810485</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>11.35731707395026</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>26.18990631285497</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>41.02249555175969</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>55.8550847906644</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>16.0311823087152</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>30.26447501271467</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>45.09706425161939</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>14.52840084618766</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>16.0311823087152</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>27.21860436948436</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>42.05119360838908</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>45.09706425161939</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>45.09706425161939</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>45.09706425161939</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>46.59984571414692</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>31.46609483270144</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>31.46609483270144</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>11.35731707395025</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>26.18990631285497</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>41.02249555175969</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>55.8550847906644</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>14.52840084618766</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>15.43188577380995</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>30.26447501271467</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>45.09706425161939</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>31.46609483270144</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>14.52840084618766</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>14.52840084618766</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>16.0311823087152</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>27.21860436948436</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>30.26447501271467</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>30.26447501271467</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>45.09706425161939</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>31.46609483270144</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>11.35731707395025</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>26.18990631285497</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>41.02249555175968</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>55.8550847906644</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>15.43188577380995</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>15.43188577380995</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>30.26447501271467</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>30.26447501271467</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>45.09706425161939</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>46.59984571414692</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>31.46609483270144</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>31.46609483270144</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>16.0311823087152</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>30.26447501271467</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>45.09706425161939</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>11.31565941573883</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>11.31565941573883</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>11.31565941573883</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>11.31565941573883</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>11.31565941573883</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>11.31565941573883</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>11.31565941573883</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>11.35731707395025</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>26.18990631285497</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>41.02249555175968</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>55.8550847906644</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>26.44941029718431</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>11.31565941573883</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>11.31565941573883</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>16.0311823087152</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>30.26447501271467</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>45.09706425161939</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>59.9296534905241</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>44.79590260907862</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>29.66215172763314</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>14.52840084618766</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>14.52840084618765</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>14.52840084618765</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>14.52840084618765</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>14.52840084618765</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>16.0311823087152</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>30.8637715476199</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>37.82764633518435</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>46.77279629074587</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>49.81866693397618</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>44.79590260907861</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>44.79590260907861</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>29.66215172763313</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>14.52840084618765</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>14.52840084618765</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>14.52840084618765</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>11.35731707395025</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>26.18990631285497</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>41.02249555175968</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>55.85508479066439</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>44.79590260907861</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>29.66215172763313</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>44.79590260907861</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>44.79590260907861</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>44.79590260907861</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>29.66215172763313</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>16.0311823087152</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>30.26447501271467</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>45.09706425161938</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>44.79590260907861</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>44.79590260907861</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>44.79590260907861</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>44.79590260907861</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>125.980664006094</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="C44" t="n">
-        <v>125.980664006094</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="D44" t="n">
-        <v>61.70481502339297</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="E44" t="n">
-        <v>61.70481502339297</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="F44" t="n">
-        <v>61.70481502339297</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="G44" t="n">
-        <v>5.090647239429919</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="H44" t="n">
-        <v>5.090647239429919</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="I44" t="n">
-        <v>5.090647239429919</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J44" t="n">
-        <v>5.090647239429919</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="K44" t="n">
-        <v>21.37821359469972</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="L44" t="n">
-        <v>56.52959345601399</v>
+        <v>15.43188577380996</v>
       </c>
       <c r="M44" t="n">
-        <v>108.4683986623846</v>
+        <v>30.26447501271467</v>
       </c>
       <c r="N44" t="n">
-        <v>163.1162204307706</v>
+        <v>45.09706425161938</v>
       </c>
       <c r="O44" t="n">
-        <v>209.3178280916577</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="P44" t="n">
-        <v>254.5323619714959</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="Q44" t="n">
-        <v>254.5323619714959</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="R44" t="n">
-        <v>254.5323619714959</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="S44" t="n">
-        <v>254.5323619714959</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="T44" t="n">
-        <v>254.5323619714959</v>
+        <v>46.59984571414692</v>
       </c>
       <c r="U44" t="n">
-        <v>190.256512988795</v>
+        <v>46.59984571414692</v>
       </c>
       <c r="V44" t="n">
-        <v>125.980664006094</v>
+        <v>46.59984571414692</v>
       </c>
       <c r="W44" t="n">
-        <v>125.980664006094</v>
+        <v>31.46609483270144</v>
       </c>
       <c r="X44" t="n">
-        <v>125.980664006094</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="Y44" t="n">
-        <v>125.980664006094</v>
+        <v>16.33234395125596</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>125.980664006094</v>
+        <v>29.66215172763313</v>
       </c>
       <c r="C45" t="n">
-        <v>125.980664006094</v>
+        <v>29.66215172763313</v>
       </c>
       <c r="D45" t="n">
-        <v>125.980664006094</v>
+        <v>29.66215172763313</v>
       </c>
       <c r="E45" t="n">
-        <v>74.66936264815519</v>
+        <v>29.66215172763313</v>
       </c>
       <c r="F45" t="n">
-        <v>10.3935136654542</v>
+        <v>16.33234395125596</v>
       </c>
       <c r="G45" t="n">
-        <v>10.3935136654542</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="H45" t="n">
-        <v>10.3935136654542</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="I45" t="n">
-        <v>5.090647239429919</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J45" t="n">
-        <v>5.090647239429919</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="K45" t="n">
-        <v>20.82297158645815</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="L45" t="n">
-        <v>60.73765232828676</v>
+        <v>11.35731707395025</v>
       </c>
       <c r="M45" t="n">
-        <v>115.1557337099051</v>
+        <v>26.18990631285497</v>
       </c>
       <c r="N45" t="n">
-        <v>176.8496009705175</v>
+        <v>41.02249555175968</v>
       </c>
       <c r="O45" t="n">
-        <v>224.2884195832109</v>
+        <v>55.85508479066439</v>
       </c>
       <c r="P45" t="n">
-        <v>254.5323619714959</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="Q45" t="n">
-        <v>254.5323619714959</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="R45" t="n">
-        <v>254.5323619714959</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="S45" t="n">
-        <v>254.5323619714959</v>
+        <v>44.79590260907861</v>
       </c>
       <c r="T45" t="n">
-        <v>254.5323619714959</v>
+        <v>29.66215172763313</v>
       </c>
       <c r="U45" t="n">
-        <v>190.256512988795</v>
+        <v>29.66215172763313</v>
       </c>
       <c r="V45" t="n">
-        <v>190.256512988795</v>
+        <v>29.66215172763313</v>
       </c>
       <c r="W45" t="n">
-        <v>125.980664006094</v>
+        <v>29.66215172763313</v>
       </c>
       <c r="X45" t="n">
-        <v>125.980664006094</v>
+        <v>29.66215172763313</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.980664006094</v>
+        <v>29.66215172763313</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>125.980664006094</v>
+        <v>29.66215172763313</v>
       </c>
       <c r="C46" t="n">
-        <v>125.980664006094</v>
+        <v>14.52840084618765</v>
       </c>
       <c r="D46" t="n">
-        <v>69.36649622213091</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="E46" t="n">
-        <v>5.090647239429919</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="F46" t="n">
-        <v>5.090647239429919</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="G46" t="n">
-        <v>5.090647239429919</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="H46" t="n">
-        <v>5.090647239429919</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="I46" t="n">
-        <v>5.090647239429919</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="J46" t="n">
-        <v>5.090647239429919</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="K46" t="n">
-        <v>5.090647239429919</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="L46" t="n">
-        <v>65.54208320766023</v>
+        <v>1.198593069810482</v>
       </c>
       <c r="M46" t="n">
-        <v>128.5388427956055</v>
+        <v>15.43188577380996</v>
       </c>
       <c r="N46" t="n">
-        <v>191.5356023835507</v>
+        <v>30.26447501271467</v>
       </c>
       <c r="O46" t="n">
-        <v>254.5323619714959</v>
+        <v>45.09706425161938</v>
       </c>
       <c r="P46" t="n">
-        <v>254.5323619714959</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="Q46" t="n">
-        <v>254.5323619714959</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="R46" t="n">
-        <v>190.256512988795</v>
+        <v>59.92965349052409</v>
       </c>
       <c r="S46" t="n">
-        <v>125.980664006094</v>
+        <v>44.79590260907861</v>
       </c>
       <c r="T46" t="n">
-        <v>125.980664006094</v>
+        <v>29.66215172763313</v>
       </c>
       <c r="U46" t="n">
-        <v>125.980664006094</v>
+        <v>29.66215172763313</v>
       </c>
       <c r="V46" t="n">
-        <v>125.980664006094</v>
+        <v>29.66215172763313</v>
       </c>
       <c r="W46" t="n">
-        <v>125.980664006094</v>
+        <v>29.66215172763313</v>
       </c>
       <c r="X46" t="n">
-        <v>125.980664006094</v>
+        <v>29.66215172763313</v>
       </c>
       <c r="Y46" t="n">
-        <v>125.980664006094</v>
+        <v>29.66215172763313</v>
       </c>
     </row>
   </sheetData>
@@ -8692,13 +8692,13 @@
         <v>34.81979492599199</v>
       </c>
       <c r="K11" t="n">
-        <v>31.42917993820346</v>
+        <v>31.42917993820345</v>
       </c>
       <c r="L11" t="n">
         <v>23.89450156601852</v>
       </c>
       <c r="M11" t="n">
-        <v>13.63155801534687</v>
+        <v>13.63155801534685</v>
       </c>
       <c r="N11" t="n">
         <v>11.96466381132231</v>
@@ -8774,7 +8774,7 @@
         <v>16.63032124124894</v>
       </c>
       <c r="L12" t="n">
-        <v>3.411388745407642</v>
+        <v>3.411388745407635</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>7.908981644977509</v>
+        <v>7.908981644977501</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.70843422154195</v>
+        <v>25.70843422154194</v>
       </c>
       <c r="R12" t="n">
         <v>43.92968946019</v>
@@ -8853,7 +8853,7 @@
         <v>28.6078221063498</v>
       </c>
       <c r="L13" t="n">
-        <v>24.37397299861713</v>
+        <v>24.37397299861712</v>
       </c>
       <c r="M13" t="n">
         <v>24.3660030835062</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>34.81979492599199</v>
+        <v>32.32750642064433</v>
       </c>
       <c r="K17" t="n">
-        <v>31.42917993820346</v>
+        <v>27.69388552783374</v>
       </c>
       <c r="L17" t="n">
-        <v>23.89450156601852</v>
+        <v>19.2605385526292</v>
       </c>
       <c r="M17" t="n">
-        <v>13.63155801534687</v>
+        <v>8.475381293867869</v>
       </c>
       <c r="N17" t="n">
-        <v>11.96466381132231</v>
+        <v>6.72505475987299</v>
       </c>
       <c r="O17" t="n">
-        <v>16.75322690579426</v>
+        <v>11.80561265633085</v>
       </c>
       <c r="P17" t="n">
-        <v>28.41253737042842</v>
+        <v>24.18986307561259</v>
       </c>
       <c r="Q17" t="n">
-        <v>41.04366499467729</v>
+        <v>37.87261245685656</v>
       </c>
       <c r="R17" t="n">
-        <v>58.81494431611752</v>
+        <v>56.97036671910967</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>28.43664143721497</v>
+        <v>26.95225147731545</v>
       </c>
       <c r="K18" t="n">
-        <v>16.63032124124894</v>
+        <v>14.09326236962642</v>
       </c>
       <c r="L18" t="n">
-        <v>3.411388745407642</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>7.908981644977509</v>
+        <v>4.908778772589713</v>
       </c>
       <c r="Q18" t="n">
-        <v>25.70843422154195</v>
+        <v>23.70287805456196</v>
       </c>
       <c r="R18" t="n">
-        <v>43.92968946019</v>
+        <v>42.95419973026392</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>37.04597107107902</v>
+        <v>36.11471251334376</v>
       </c>
       <c r="K19" t="n">
-        <v>28.6078221063498</v>
+        <v>27.07747822466578</v>
       </c>
       <c r="L19" t="n">
-        <v>24.37397299861713</v>
+        <v>22.41565970901927</v>
       </c>
       <c r="M19" t="n">
-        <v>24.3660030835062</v>
+        <v>22.30123629540936</v>
       </c>
       <c r="N19" t="n">
-        <v>20.57219157480551</v>
+        <v>18.55652032594892</v>
       </c>
       <c r="O19" t="n">
-        <v>27.31164863678001</v>
+        <v>25.44984999261544</v>
       </c>
       <c r="P19" t="n">
-        <v>31.16791274233458</v>
+        <v>29.57482236659715</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.31950182682881</v>
+        <v>43.21652862697032</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>34.81979492599199</v>
+        <v>32.32750642064433</v>
       </c>
       <c r="K20" t="n">
-        <v>31.42917993820346</v>
+        <v>27.69388552783374</v>
       </c>
       <c r="L20" t="n">
-        <v>23.89450156601852</v>
+        <v>19.2605385526292</v>
       </c>
       <c r="M20" t="n">
-        <v>13.63155801534687</v>
+        <v>8.475381293867869</v>
       </c>
       <c r="N20" t="n">
-        <v>11.96466381132231</v>
+        <v>6.72505475987299</v>
       </c>
       <c r="O20" t="n">
-        <v>16.75322690579426</v>
+        <v>11.80561265633085</v>
       </c>
       <c r="P20" t="n">
-        <v>28.41253737042842</v>
+        <v>24.18986307561259</v>
       </c>
       <c r="Q20" t="n">
-        <v>41.04366499467729</v>
+        <v>37.87261245685656</v>
       </c>
       <c r="R20" t="n">
-        <v>58.81494431611752</v>
+        <v>56.97036671910967</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>28.43664143721497</v>
+        <v>26.95225147731545</v>
       </c>
       <c r="K21" t="n">
-        <v>16.63032124124894</v>
+        <v>14.09326236962642</v>
       </c>
       <c r="L21" t="n">
-        <v>3.411388745407642</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>7.908981644977509</v>
+        <v>4.908778772589713</v>
       </c>
       <c r="Q21" t="n">
-        <v>25.70843422154195</v>
+        <v>23.70287805456196</v>
       </c>
       <c r="R21" t="n">
-        <v>43.92968946019</v>
+        <v>42.95419973026392</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>37.04597107107902</v>
+        <v>36.11471251334376</v>
       </c>
       <c r="K22" t="n">
-        <v>28.6078221063498</v>
+        <v>27.07747822466578</v>
       </c>
       <c r="L22" t="n">
-        <v>24.37397299861713</v>
+        <v>22.41565970901927</v>
       </c>
       <c r="M22" t="n">
-        <v>24.3660030835062</v>
+        <v>22.30123629540936</v>
       </c>
       <c r="N22" t="n">
-        <v>20.57219157480551</v>
+        <v>18.55652032594892</v>
       </c>
       <c r="O22" t="n">
-        <v>27.31164863678001</v>
+        <v>25.44984999261544</v>
       </c>
       <c r="P22" t="n">
-        <v>31.16791274233458</v>
+        <v>29.57482236659715</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.31950182682881</v>
+        <v>43.21652862697032</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>34.81979492599199</v>
+        <v>24.83079024283864</v>
       </c>
       <c r="K23" t="n">
-        <v>31.42917993820345</v>
+        <v>16.45825130049546</v>
       </c>
       <c r="L23" t="n">
-        <v>23.89450156601852</v>
+        <v>20.30415414350707</v>
       </c>
       <c r="M23" t="n">
-        <v>13.63155801534685</v>
+        <v>7.948196415495214</v>
       </c>
       <c r="N23" t="n">
-        <v>11.96466381132231</v>
+        <v>5.341558331755513</v>
       </c>
       <c r="O23" t="n">
-        <v>16.75322690579426</v>
+        <v>11.90577635926708</v>
       </c>
       <c r="P23" t="n">
-        <v>28.41253737042842</v>
+        <v>11.48820729554301</v>
       </c>
       <c r="Q23" t="n">
-        <v>41.04366499467729</v>
+        <v>28.33419793945848</v>
       </c>
       <c r="R23" t="n">
-        <v>58.81494431611752</v>
+        <v>51.42194217554835</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>28.43664143721497</v>
+        <v>22.48725867946164</v>
       </c>
       <c r="K24" t="n">
-        <v>16.63032124124894</v>
+        <v>6.461878504504853</v>
       </c>
       <c r="L24" t="n">
-        <v>3.411388745407635</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>7.908981644977501</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>25.70843422154194</v>
+        <v>17.67023563365592</v>
       </c>
       <c r="R24" t="n">
-        <v>43.92968946019</v>
+        <v>40.01996092768194</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>37.04597107107902</v>
+        <v>33.31351952123465</v>
       </c>
       <c r="K25" t="n">
-        <v>28.6078221063498</v>
+        <v>37.45667101877625</v>
       </c>
       <c r="L25" t="n">
-        <v>24.37397299861712</v>
+        <v>16.52512220188898</v>
       </c>
       <c r="M25" t="n">
-        <v>24.3660030835062</v>
+        <v>30.46755374581622</v>
       </c>
       <c r="N25" t="n">
-        <v>20.57219157480551</v>
+        <v>12.49345209447501</v>
       </c>
       <c r="O25" t="n">
-        <v>27.31164863678001</v>
+        <v>19.84962514481907</v>
       </c>
       <c r="P25" t="n">
-        <v>31.16791274233458</v>
+        <v>39.76527591320021</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.31950182682881</v>
+        <v>54.88123740267233</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>34.81979492599199</v>
+        <v>24.83079024283864</v>
       </c>
       <c r="K26" t="n">
-        <v>31.42917993820346</v>
+        <v>31.44066467312649</v>
       </c>
       <c r="L26" t="n">
-        <v>23.89450156601852</v>
+        <v>5.321740770876048</v>
       </c>
       <c r="M26" t="n">
-        <v>13.63155801534687</v>
+        <v>7.948196415495214</v>
       </c>
       <c r="N26" t="n">
-        <v>11.96466381132231</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>16.75322690579426</v>
+        <v>2.264921318391561</v>
       </c>
       <c r="P26" t="n">
-        <v>28.41253737042842</v>
+        <v>11.48820729554301</v>
       </c>
       <c r="Q26" t="n">
-        <v>41.04366499467729</v>
+        <v>28.33419793945848</v>
       </c>
       <c r="R26" t="n">
-        <v>58.81494431611752</v>
+        <v>66.40435554817938</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>28.43664143721497</v>
+        <v>22.48725867946164</v>
       </c>
       <c r="K27" t="n">
-        <v>16.63032124124894</v>
+        <v>6.461878504504853</v>
       </c>
       <c r="L27" t="n">
-        <v>3.411388745407642</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>7.908981644977509</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>25.70843422154195</v>
+        <v>17.67023563365592</v>
       </c>
       <c r="R27" t="n">
-        <v>43.92968946019</v>
+        <v>40.01996092768194</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>37.04597107107902</v>
+        <v>33.31351952123465</v>
       </c>
       <c r="K28" t="n">
-        <v>28.6078221063498</v>
+        <v>22.47425764614522</v>
       </c>
       <c r="L28" t="n">
-        <v>24.37397299861713</v>
+        <v>31.50753557452001</v>
       </c>
       <c r="M28" t="n">
-        <v>24.3660030835062</v>
+        <v>31.07290378107404</v>
       </c>
       <c r="N28" t="n">
-        <v>20.57219157480551</v>
+        <v>27.47586546710604</v>
       </c>
       <c r="O28" t="n">
-        <v>27.31164863678001</v>
+        <v>34.22668848219228</v>
       </c>
       <c r="P28" t="n">
-        <v>31.16791274233458</v>
+        <v>24.78286254056918</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.31950182682881</v>
+        <v>39.8988240300413</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>34.81979492599199</v>
+        <v>39.81320361546966</v>
       </c>
       <c r="K29" t="n">
-        <v>31.42917993820345</v>
+        <v>31.44066467312649</v>
       </c>
       <c r="L29" t="n">
-        <v>23.89450156601852</v>
+        <v>5.321740770876048</v>
       </c>
       <c r="M29" t="n">
-        <v>13.63155801534685</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>11.96466381132231</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>16.75322690579426</v>
+        <v>10.21311773388677</v>
       </c>
       <c r="P29" t="n">
-        <v>28.41253737042842</v>
+        <v>11.48820729554301</v>
       </c>
       <c r="Q29" t="n">
-        <v>41.04366499467729</v>
+        <v>28.33419793945848</v>
       </c>
       <c r="R29" t="n">
-        <v>58.81494431611752</v>
+        <v>51.42194217554835</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>28.43664143721497</v>
+        <v>22.48725867946164</v>
       </c>
       <c r="K30" t="n">
-        <v>16.63032124124894</v>
+        <v>6.461878504504853</v>
       </c>
       <c r="L30" t="n">
-        <v>3.411388745407635</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>7.908981644977501</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>25.70843422154194</v>
+        <v>17.67023563365592</v>
       </c>
       <c r="R30" t="n">
-        <v>43.92968946019</v>
+        <v>40.01996092768194</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>37.04597107107902</v>
+        <v>48.29593289386568</v>
       </c>
       <c r="K31" t="n">
-        <v>28.6078221063498</v>
+        <v>36.85132098351843</v>
       </c>
       <c r="L31" t="n">
-        <v>24.37397299861712</v>
+        <v>31.50753557452001</v>
       </c>
       <c r="M31" t="n">
-        <v>24.3660030835062</v>
+        <v>31.07290378107405</v>
       </c>
       <c r="N31" t="n">
-        <v>20.57219157480551</v>
+        <v>12.49345209447501</v>
       </c>
       <c r="O31" t="n">
-        <v>27.31164863678001</v>
+        <v>19.84962514481907</v>
       </c>
       <c r="P31" t="n">
-        <v>31.16791274233458</v>
+        <v>24.78286254056918</v>
       </c>
       <c r="Q31" t="n">
-        <v>44.31950182682881</v>
+        <v>39.8988240300413</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>34.81979492599199</v>
+        <v>24.83079024283864</v>
       </c>
       <c r="K32" t="n">
-        <v>31.42917993820346</v>
+        <v>16.45825130049546</v>
       </c>
       <c r="L32" t="n">
-        <v>23.89450156601852</v>
+        <v>20.30415414350707</v>
       </c>
       <c r="M32" t="n">
-        <v>13.63155801534687</v>
+        <v>4.266209366873444</v>
       </c>
       <c r="N32" t="n">
-        <v>11.96466381132231</v>
+        <v>5.946908367013336</v>
       </c>
       <c r="O32" t="n">
-        <v>16.75322690579426</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>28.41253737042842</v>
+        <v>11.48820729554301</v>
       </c>
       <c r="Q32" t="n">
-        <v>41.04366499467729</v>
+        <v>28.33419793945848</v>
       </c>
       <c r="R32" t="n">
-        <v>58.81494431611752</v>
+        <v>66.40435554817938</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>28.43664143721497</v>
+        <v>22.48725867946164</v>
       </c>
       <c r="K33" t="n">
-        <v>16.63032124124894</v>
+        <v>6.461878504504853</v>
       </c>
       <c r="L33" t="n">
-        <v>3.411388745407642</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>7.908981644977509</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>25.70843422154195</v>
+        <v>17.67023563365592</v>
       </c>
       <c r="R33" t="n">
-        <v>43.92968946019</v>
+        <v>40.01996092768194</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>37.04597107107902</v>
+        <v>33.31351952123465</v>
       </c>
       <c r="K34" t="n">
-        <v>28.6078221063498</v>
+        <v>22.47425764614522</v>
       </c>
       <c r="L34" t="n">
-        <v>24.37397299861713</v>
+        <v>16.52512220188898</v>
       </c>
       <c r="M34" t="n">
-        <v>24.3660030835062</v>
+        <v>16.09049040844302</v>
       </c>
       <c r="N34" t="n">
-        <v>20.57219157480551</v>
+        <v>26.87051543184822</v>
       </c>
       <c r="O34" t="n">
-        <v>27.31164863678001</v>
+        <v>34.83203851745009</v>
       </c>
       <c r="P34" t="n">
-        <v>31.16791274233458</v>
+        <v>39.76527591320021</v>
       </c>
       <c r="Q34" t="n">
-        <v>44.31950182682881</v>
+        <v>54.88123740267233</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>34.81979492599199</v>
+        <v>24.83079024283864</v>
       </c>
       <c r="K35" t="n">
-        <v>31.42917993820346</v>
+        <v>16.45825130049546</v>
       </c>
       <c r="L35" t="n">
-        <v>23.89450156601852</v>
+        <v>5.321740770876048</v>
       </c>
       <c r="M35" t="n">
-        <v>13.63155801534687</v>
+        <v>7.948196415495214</v>
       </c>
       <c r="N35" t="n">
-        <v>11.96466381132231</v>
+        <v>2.264921318391561</v>
       </c>
       <c r="O35" t="n">
-        <v>16.75322690579426</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>28.41253737042842</v>
+        <v>11.48820729554301</v>
       </c>
       <c r="Q35" t="n">
-        <v>41.04366499467729</v>
+        <v>43.31661131208951</v>
       </c>
       <c r="R35" t="n">
-        <v>58.81494431611752</v>
+        <v>66.40435554817938</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>28.43664143721497</v>
+        <v>22.48725867946164</v>
       </c>
       <c r="K36" t="n">
-        <v>16.63032124124894</v>
+        <v>6.461878504504853</v>
       </c>
       <c r="L36" t="n">
-        <v>3.411388745407642</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>7.908981644977509</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>25.70843422154195</v>
+        <v>17.67023563365592</v>
       </c>
       <c r="R36" t="n">
-        <v>43.92968946019</v>
+        <v>40.01996092768194</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>37.04597107107902</v>
+        <v>33.31351952123465</v>
       </c>
       <c r="K37" t="n">
-        <v>28.6078221063498</v>
+        <v>36.85132098351843</v>
       </c>
       <c r="L37" t="n">
-        <v>24.37397299861713</v>
+        <v>16.52512220188898</v>
       </c>
       <c r="M37" t="n">
-        <v>24.3660030835062</v>
+        <v>31.07290378107405</v>
       </c>
       <c r="N37" t="n">
-        <v>20.57219157480551</v>
+        <v>12.49345209447501</v>
       </c>
       <c r="O37" t="n">
-        <v>27.31164863678001</v>
+        <v>34.83203851745009</v>
       </c>
       <c r="P37" t="n">
-        <v>31.16791274233458</v>
+        <v>39.76527591320021</v>
       </c>
       <c r="Q37" t="n">
-        <v>44.31950182682881</v>
+        <v>39.8988240300413</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>34.81979492599199</v>
+        <v>24.83079024283864</v>
       </c>
       <c r="K38" t="n">
-        <v>31.42917993820346</v>
+        <v>16.45825130049546</v>
       </c>
       <c r="L38" t="n">
-        <v>23.89450156601852</v>
+        <v>20.30415414350707</v>
       </c>
       <c r="M38" t="n">
-        <v>13.63155801534687</v>
+        <v>7.342846380237392</v>
       </c>
       <c r="N38" t="n">
-        <v>11.96466381132231</v>
+        <v>5.946908367013336</v>
       </c>
       <c r="O38" t="n">
-        <v>16.75322690579426</v>
+        <v>11.90577635926708</v>
       </c>
       <c r="P38" t="n">
-        <v>28.41253737042842</v>
+        <v>11.48820729554301</v>
       </c>
       <c r="Q38" t="n">
-        <v>41.04366499467729</v>
+        <v>28.33419793945848</v>
       </c>
       <c r="R38" t="n">
-        <v>58.81494431611752</v>
+        <v>51.42194217554835</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>28.43664143721497</v>
+        <v>22.48725867946164</v>
       </c>
       <c r="K39" t="n">
-        <v>16.63032124124894</v>
+        <v>6.461878504504853</v>
       </c>
       <c r="L39" t="n">
-        <v>3.411388745407642</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>7.908981644977509</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>25.70843422154195</v>
+        <v>17.67023563365592</v>
       </c>
       <c r="R39" t="n">
-        <v>43.92968946019</v>
+        <v>40.01996092768194</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>37.04597107107902</v>
+        <v>33.31351952123465</v>
       </c>
       <c r="K40" t="n">
-        <v>28.6078221063498</v>
+        <v>22.47425764614522</v>
       </c>
       <c r="L40" t="n">
-        <v>24.37397299861713</v>
+        <v>31.50753557452001</v>
       </c>
       <c r="M40" t="n">
-        <v>24.3660030835062</v>
+        <v>30.46755374581622</v>
       </c>
       <c r="N40" t="n">
-        <v>20.57219157480551</v>
+        <v>27.47586546710604</v>
       </c>
       <c r="O40" t="n">
-        <v>27.31164863678001</v>
+        <v>34.83203851745009</v>
       </c>
       <c r="P40" t="n">
-        <v>31.16791274233458</v>
+        <v>24.78286254056918</v>
       </c>
       <c r="Q40" t="n">
-        <v>44.31950182682881</v>
+        <v>39.8988240300413</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>34.81979492599199</v>
+        <v>24.83079024283864</v>
       </c>
       <c r="K41" t="n">
-        <v>31.42917993820346</v>
+        <v>31.44066467312648</v>
       </c>
       <c r="L41" t="n">
-        <v>23.89450156601852</v>
+        <v>20.30415414350707</v>
       </c>
       <c r="M41" t="n">
-        <v>13.63155801534687</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>11.96466381132231</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>16.75322690579426</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>28.41253737042842</v>
+        <v>21.70132502942978</v>
       </c>
       <c r="Q41" t="n">
-        <v>41.04366499467729</v>
+        <v>28.33419793945848</v>
       </c>
       <c r="R41" t="n">
-        <v>58.81494431611752</v>
+        <v>51.42194217554835</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>28.43664143721497</v>
+        <v>22.48725867946164</v>
       </c>
       <c r="K42" t="n">
-        <v>16.63032124124894</v>
+        <v>6.461878504504853</v>
       </c>
       <c r="L42" t="n">
-        <v>3.411388745407642</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>7.908981644977509</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>25.70843422154195</v>
+        <v>17.67023563365592</v>
       </c>
       <c r="R42" t="n">
-        <v>43.92968946019</v>
+        <v>40.01996092768194</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>37.04597107107902</v>
+        <v>48.29593289386568</v>
       </c>
       <c r="K43" t="n">
-        <v>28.6078221063498</v>
+        <v>36.85132098351843</v>
       </c>
       <c r="L43" t="n">
-        <v>24.37397299861713</v>
+        <v>31.50753557452001</v>
       </c>
       <c r="M43" t="n">
-        <v>24.3660030835062</v>
+        <v>31.07290378107403</v>
       </c>
       <c r="N43" t="n">
-        <v>20.57219157480551</v>
+        <v>12.49345209447501</v>
       </c>
       <c r="O43" t="n">
-        <v>27.31164863678001</v>
+        <v>19.84962514481907</v>
       </c>
       <c r="P43" t="n">
-        <v>31.16791274233458</v>
+        <v>24.78286254056918</v>
       </c>
       <c r="Q43" t="n">
-        <v>44.31950182682881</v>
+        <v>39.8988240300413</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.872130654231412</v>
+        <v>24.83079024283864</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>16.45825130049546</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>19.69880410824926</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>7.948196415495218</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>5.946908367013336</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>11.90577635926708</v>
       </c>
       <c r="P44" t="n">
-        <v>19.95498585971613</v>
+        <v>11.48820729554301</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.3951920554341797</v>
+        <v>28.33419793945848</v>
       </c>
       <c r="R44" t="n">
-        <v>35.17003094995919</v>
+        <v>51.42194217554835</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>9.408831460365207</v>
+        <v>22.48725867946164</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>6.461878504504853</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>17.67023563365592</v>
       </c>
       <c r="R45" t="n">
-        <v>31.4252710008666</v>
+        <v>40.01996092768194</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.1085345789182</v>
+        <v>33.31351952123465</v>
       </c>
       <c r="K46" t="n">
-        <v>8.990946914140032</v>
+        <v>22.47425764614522</v>
       </c>
       <c r="L46" t="n">
-        <v>60.33318313989838</v>
+        <v>16.52512220188898</v>
       </c>
       <c r="M46" t="n">
-        <v>61.53166173449653</v>
+        <v>30.46755374581623</v>
       </c>
       <c r="N46" t="n">
-        <v>58.36718659737689</v>
+        <v>27.47586546710604</v>
       </c>
       <c r="O46" t="n">
-        <v>67.07907594589204</v>
+        <v>34.83203851745009</v>
       </c>
       <c r="P46" t="n">
-        <v>10.74671496790901</v>
+        <v>39.76527591320021</v>
       </c>
       <c r="Q46" t="n">
-        <v>30.18092300089421</v>
+        <v>39.8988240300413</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.1873416079885</v>
+        <v>404.1579769515977</v>
       </c>
       <c r="H17" t="n">
-        <v>303.153370424964</v>
+        <v>302.8526396377018</v>
       </c>
       <c r="I17" t="n">
-        <v>67.99853108690158</v>
+        <v>66.86645017139571</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>123.5904949947116</v>
+        <v>122.9213478872065</v>
       </c>
       <c r="T17" t="n">
-        <v>217.9985240592434</v>
+        <v>217.8699802758928</v>
       </c>
       <c r="U17" t="n">
-        <v>254.4535940504364</v>
+        <v>254.4512448779251</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23825,13 +23825,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>105.6774822426766</v>
+        <v>105.6617707663822</v>
       </c>
       <c r="H18" t="n">
-        <v>67.69548664993043</v>
+        <v>67.54374686571899</v>
       </c>
       <c r="I18" t="n">
-        <v>12.18397769576295</v>
+        <v>11.64303432334703</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,13 +23861,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>102.4015191999815</v>
+        <v>102.1096854188119</v>
       </c>
       <c r="T18" t="n">
-        <v>156.7700756945035</v>
+        <v>156.7067474194398</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3613337192077</v>
+        <v>195.3603000694515</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
@@ -23904,13 +23904,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3612190849339</v>
       </c>
       <c r="H19" t="n">
-        <v>146.3021152741505</v>
+        <v>146.1850044512799</v>
       </c>
       <c r="I19" t="n">
-        <v>109.062902574934</v>
+        <v>108.6667853949175</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>75.27006628211034</v>
+        <v>74.67780643556814</v>
       </c>
       <c r="S19" t="n">
-        <v>180.9814683209813</v>
+        <v>180.7519167387287</v>
       </c>
       <c r="T19" t="n">
-        <v>236.2837682760401</v>
+        <v>236.2274880237403</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9583477204947</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -23983,13 +23983,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1873416079885</v>
+        <v>404.1579769515977</v>
       </c>
       <c r="H20" t="n">
-        <v>303.153370424964</v>
+        <v>302.8526396377018</v>
       </c>
       <c r="I20" t="n">
-        <v>67.99853108690158</v>
+        <v>66.86645017139571</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>123.5904949947116</v>
+        <v>122.9213478872065</v>
       </c>
       <c r="T20" t="n">
-        <v>217.9985240592434</v>
+        <v>217.8699802758928</v>
       </c>
       <c r="U20" t="n">
-        <v>254.4535940504364</v>
+        <v>254.4512448779251</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24062,13 +24062,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>105.6774822426766</v>
+        <v>105.6617707663822</v>
       </c>
       <c r="H21" t="n">
-        <v>67.69548664993043</v>
+        <v>67.54374686571899</v>
       </c>
       <c r="I21" t="n">
-        <v>12.18397769576295</v>
+        <v>11.64303432334703</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>102.4015191999815</v>
+        <v>102.1096854188119</v>
       </c>
       <c r="T21" t="n">
-        <v>156.7700756945035</v>
+        <v>156.7067474194398</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3613337192077</v>
+        <v>195.3603000694515</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
@@ -24141,13 +24141,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3612190849339</v>
       </c>
       <c r="H22" t="n">
-        <v>146.3021152741505</v>
+        <v>146.1850044512799</v>
       </c>
       <c r="I22" t="n">
-        <v>109.062902574934</v>
+        <v>108.6667853949175</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>75.27006628211034</v>
+        <v>74.67780643556814</v>
       </c>
       <c r="S22" t="n">
-        <v>180.9814683209813</v>
+        <v>180.7519167387287</v>
       </c>
       <c r="T22" t="n">
-        <v>236.2837682760401</v>
+        <v>236.2274880237403</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9583477204947</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24217,16 +24217,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>401.8376945532183</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1873416079885</v>
+        <v>404.0696490978407</v>
       </c>
       <c r="H23" t="n">
-        <v>303.153370424964</v>
+        <v>301.9480520054133</v>
       </c>
       <c r="I23" t="n">
-        <v>67.99853108690158</v>
+        <v>63.4611905894301</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>123.5904949947116</v>
+        <v>120.9085769197195</v>
       </c>
       <c r="T23" t="n">
-        <v>217.9985240592434</v>
+        <v>202.5009117234406</v>
       </c>
       <c r="U23" t="n">
-        <v>254.4535940504364</v>
+        <v>239.4617652769935</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>333.1426694182707</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -24299,13 +24299,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>105.6774822426766</v>
+        <v>90.63209782558302</v>
       </c>
       <c r="H24" t="n">
-        <v>67.69548664993043</v>
+        <v>67.08731893104213</v>
       </c>
       <c r="I24" t="n">
-        <v>12.18397769576295</v>
+        <v>10.01589568246906</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,22 +24335,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>102.4015191999815</v>
+        <v>101.2318596679688</v>
       </c>
       <c r="T24" t="n">
-        <v>156.7700756945035</v>
+        <v>156.5162581951128</v>
       </c>
       <c r="U24" t="n">
-        <v>195.3613337192077</v>
+        <v>195.3571908873351</v>
       </c>
       <c r="V24" t="n">
-        <v>211.5744117368965</v>
+        <v>198.3779020382831</v>
       </c>
       <c r="W24" t="n">
-        <v>211.1008365810345</v>
+        <v>196.1184232084035</v>
       </c>
       <c r="X24" t="n">
-        <v>174.5627220424961</v>
+        <v>159.5803086698651</v>
       </c>
       <c r="Y24" t="n">
         <v>157.8079400398083</v>
@@ -24378,13 +24378,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3215982505335</v>
       </c>
       <c r="H25" t="n">
-        <v>146.3021152741505</v>
+        <v>132.6362295159065</v>
       </c>
       <c r="I25" t="n">
-        <v>109.062902574934</v>
+        <v>92.49286547504502</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>75.27006628211034</v>
+        <v>57.91389627253315</v>
       </c>
       <c r="S25" t="n">
-        <v>180.9814683209813</v>
+        <v>165.0790202793196</v>
       </c>
       <c r="T25" t="n">
-        <v>236.2837682760401</v>
+        <v>236.0581990040295</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9561865840728</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -24454,16 +24454,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>403.6235982272359</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1873416079885</v>
+        <v>404.0696490978407</v>
       </c>
       <c r="H26" t="n">
-        <v>303.153370424964</v>
+        <v>301.9480520054133</v>
       </c>
       <c r="I26" t="n">
-        <v>67.99853108690158</v>
+        <v>63.4611905894301</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>123.5904949947116</v>
+        <v>120.9085769197195</v>
       </c>
       <c r="T26" t="n">
-        <v>217.9985240592434</v>
+        <v>202.5009117234406</v>
       </c>
       <c r="U26" t="n">
-        <v>254.4535940504364</v>
+        <v>239.4617652769935</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>331.3567657442531</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -24536,13 +24536,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>105.6774822426766</v>
+        <v>90.63209782558302</v>
       </c>
       <c r="H27" t="n">
-        <v>67.69548664993043</v>
+        <v>67.08731893104213</v>
       </c>
       <c r="I27" t="n">
-        <v>12.18397769576295</v>
+        <v>10.01589568246906</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,19 +24572,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>102.4015191999815</v>
+        <v>101.2318596679688</v>
       </c>
       <c r="T27" t="n">
-        <v>156.7700756945035</v>
+        <v>156.5162581951128</v>
       </c>
       <c r="U27" t="n">
-        <v>195.3613337192077</v>
+        <v>180.3747775147041</v>
       </c>
       <c r="V27" t="n">
-        <v>211.5744117368965</v>
+        <v>196.5919983642655</v>
       </c>
       <c r="W27" t="n">
-        <v>211.1008365810345</v>
+        <v>197.9043268824211</v>
       </c>
       <c r="X27" t="n">
         <v>174.5627220424961</v>
@@ -24615,13 +24615,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3215982505335</v>
       </c>
       <c r="H28" t="n">
-        <v>146.3021152741505</v>
+        <v>145.8327392145199</v>
       </c>
       <c r="I28" t="n">
-        <v>109.062902574934</v>
+        <v>107.4752788476761</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>75.27006628211034</v>
+        <v>72.89630964516418</v>
       </c>
       <c r="S28" t="n">
-        <v>180.9814683209813</v>
+        <v>180.0614336519506</v>
       </c>
       <c r="T28" t="n">
-        <v>236.2837682760401</v>
+        <v>221.0757856313984</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9590661918006</v>
+        <v>264.9737732114418</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>256.1644742372422</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>263.082458147601</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>391.1365544952135</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>392.8268350812492</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -24694,13 +24694,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.1873416079885</v>
+        <v>404.0696490978407</v>
       </c>
       <c r="H29" t="n">
-        <v>303.153370424964</v>
+        <v>301.9480520054133</v>
       </c>
       <c r="I29" t="n">
-        <v>67.99853108690158</v>
+        <v>63.4611905894301</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>123.5904949947116</v>
+        <v>120.9085769197195</v>
       </c>
       <c r="T29" t="n">
-        <v>217.9985240592434</v>
+        <v>202.5009117234406</v>
       </c>
       <c r="U29" t="n">
-        <v>254.4535940504364</v>
+        <v>254.4441786496245</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24748,7 +24748,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>381.9448929487598</v>
       </c>
     </row>
     <row r="30">
@@ -24767,19 +24767,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>106.0913781489819</v>
       </c>
       <c r="F30" t="n">
-        <v>107.8702810193205</v>
+        <v>92.88786764668943</v>
       </c>
       <c r="G30" t="n">
-        <v>105.6774822426766</v>
+        <v>90.63209782558302</v>
       </c>
       <c r="H30" t="n">
-        <v>67.69548664993043</v>
+        <v>67.08731893104213</v>
       </c>
       <c r="I30" t="n">
-        <v>12.18397769576295</v>
+        <v>10.01589568246906</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,16 +24809,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>102.4015191999815</v>
+        <v>101.2318596679688</v>
       </c>
       <c r="T30" t="n">
-        <v>156.7700756945035</v>
+        <v>156.5162581951128</v>
       </c>
       <c r="U30" t="n">
-        <v>195.3613337192077</v>
+        <v>195.3571908873351</v>
       </c>
       <c r="V30" t="n">
-        <v>211.5744117368965</v>
+        <v>196.5919983642655</v>
       </c>
       <c r="W30" t="n">
         <v>211.1008365810345</v>
@@ -24852,13 +24852,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3215982505335</v>
       </c>
       <c r="H31" t="n">
-        <v>146.3021152741505</v>
+        <v>145.8327392145199</v>
       </c>
       <c r="I31" t="n">
-        <v>109.062902574934</v>
+        <v>107.4752788476761</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>75.27006628211034</v>
+        <v>57.91389627253315</v>
       </c>
       <c r="S31" t="n">
-        <v>180.9814683209813</v>
+        <v>165.0790202793196</v>
       </c>
       <c r="T31" t="n">
-        <v>236.2837682760401</v>
+        <v>236.0581990040295</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9561865840728</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>256.1644742372422</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>263.082458147601</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -24931,13 +24931,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1873416079885</v>
+        <v>404.0696490978407</v>
       </c>
       <c r="H32" t="n">
-        <v>303.153370424964</v>
+        <v>301.9480520054133</v>
       </c>
       <c r="I32" t="n">
-        <v>67.99853108690158</v>
+        <v>63.4611905894301</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.5904949947116</v>
+        <v>107.7120672211061</v>
       </c>
       <c r="T32" t="n">
-        <v>217.9985240592434</v>
+        <v>202.5009117234406</v>
       </c>
       <c r="U32" t="n">
-        <v>254.4535940504364</v>
+        <v>254.4441786496245</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>331.3567657442531</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>364.9402844835521</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -25010,13 +25010,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>105.6774822426766</v>
+        <v>105.614511198214</v>
       </c>
       <c r="H33" t="n">
-        <v>67.69548664993043</v>
+        <v>67.08731893104213</v>
       </c>
       <c r="I33" t="n">
-        <v>12.18397769576295</v>
+        <v>10.01589568246906</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,19 +25046,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>102.4015191999815</v>
+        <v>86.2494462953378</v>
       </c>
       <c r="T33" t="n">
-        <v>156.7700756945035</v>
+        <v>156.5162581951128</v>
       </c>
       <c r="U33" t="n">
-        <v>195.3613337192077</v>
+        <v>180.3747775147041</v>
       </c>
       <c r="V33" t="n">
-        <v>211.5744117368965</v>
+        <v>196.5919983642655</v>
       </c>
       <c r="W33" t="n">
-        <v>211.1008365810345</v>
+        <v>197.9043268824211</v>
       </c>
       <c r="X33" t="n">
         <v>174.5627220424961</v>
@@ -25089,13 +25089,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3215982505335</v>
       </c>
       <c r="H34" t="n">
-        <v>146.3021152741505</v>
+        <v>145.8327392145199</v>
       </c>
       <c r="I34" t="n">
-        <v>109.062902574934</v>
+        <v>107.4752788476761</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>75.27006628211034</v>
+        <v>72.89630964516418</v>
       </c>
       <c r="S34" t="n">
-        <v>180.9814683209813</v>
+        <v>180.0614336519506</v>
       </c>
       <c r="T34" t="n">
-        <v>236.2837682760401</v>
+        <v>221.0757856313984</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9561865840728</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>257.9503779112599</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>261.2965544735833</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>207.5059282524919</v>
       </c>
     </row>
     <row r="35">
@@ -25156,25 +25156,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>391.0409314072315</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>385.436877235239</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>403.6235982272359</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1873416079885</v>
+        <v>404.0696490978407</v>
       </c>
       <c r="H35" t="n">
-        <v>303.153370424964</v>
+        <v>301.9480520054133</v>
       </c>
       <c r="I35" t="n">
-        <v>67.99853108690158</v>
+        <v>63.4611905894301</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>123.5904949947116</v>
+        <v>105.9261635470885</v>
       </c>
       <c r="T35" t="n">
-        <v>217.9985240592434</v>
+        <v>217.4833250960716</v>
       </c>
       <c r="U35" t="n">
-        <v>254.4535940504364</v>
+        <v>254.4441786496245</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25241,19 +25241,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>106.0913781489819</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>92.88786764668943</v>
       </c>
       <c r="G36" t="n">
-        <v>105.6774822426766</v>
+        <v>90.63209782558302</v>
       </c>
       <c r="H36" t="n">
-        <v>67.69548664993043</v>
+        <v>67.08731893104213</v>
       </c>
       <c r="I36" t="n">
-        <v>12.18397769576295</v>
+        <v>10.01589568246906</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,13 +25283,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>102.4015191999815</v>
+        <v>101.2318596679688</v>
       </c>
       <c r="T36" t="n">
-        <v>156.7700756945035</v>
+        <v>156.5162581951128</v>
       </c>
       <c r="U36" t="n">
-        <v>195.3613337192077</v>
+        <v>180.3747775147041</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -25326,13 +25326,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3215982505335</v>
       </c>
       <c r="H37" t="n">
-        <v>146.3021152741505</v>
+        <v>145.8327392145199</v>
       </c>
       <c r="I37" t="n">
-        <v>109.062902574934</v>
+        <v>107.4752788476761</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>75.27006628211034</v>
+        <v>72.89630964516418</v>
       </c>
       <c r="S37" t="n">
-        <v>180.9814683209813</v>
+        <v>166.8649239533372</v>
       </c>
       <c r="T37" t="n">
-        <v>236.2837682760401</v>
+        <v>221.0757856313984</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9561865840728</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>256.1644742372422</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>220.9780101462824</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -25405,13 +25405,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1873416079885</v>
+        <v>404.0696490978407</v>
       </c>
       <c r="H38" t="n">
-        <v>303.153370424964</v>
+        <v>301.9480520054133</v>
       </c>
       <c r="I38" t="n">
-        <v>67.99853108690158</v>
+        <v>63.4611905894301</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>123.5904949947116</v>
+        <v>105.9261635470885</v>
       </c>
       <c r="T38" t="n">
-        <v>217.9985240592434</v>
+        <v>217.4833250960716</v>
       </c>
       <c r="U38" t="n">
-        <v>254.4535940504364</v>
+        <v>239.4617652769935</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>366.7261881575697</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>381.654550480106</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25484,13 +25484,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>105.6774822426766</v>
+        <v>105.614511198214</v>
       </c>
       <c r="H39" t="n">
-        <v>67.69548664993043</v>
+        <v>67.08731893104213</v>
       </c>
       <c r="I39" t="n">
-        <v>12.18397769576295</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>102.4015191999815</v>
+        <v>86.2494462953378</v>
       </c>
       <c r="T39" t="n">
-        <v>156.7700756945035</v>
+        <v>141.5338448224818</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3613337192077</v>
+        <v>195.3571908873351</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>211.1008365810345</v>
+        <v>207.9202225648902</v>
       </c>
       <c r="X39" t="n">
-        <v>174.5627220424961</v>
+        <v>159.5803086698651</v>
       </c>
       <c r="Y39" t="n">
         <v>157.8079400398083</v>
@@ -25563,13 +25563,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.3743910588764</v>
+        <v>165.3215982505335</v>
       </c>
       <c r="H40" t="n">
-        <v>146.3021152741505</v>
+        <v>145.8327392145199</v>
       </c>
       <c r="I40" t="n">
-        <v>109.062902574934</v>
+        <v>107.4752788476761</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>75.27006628211034</v>
+        <v>72.89630964516418</v>
       </c>
       <c r="S40" t="n">
-        <v>180.9814683209813</v>
+        <v>180.0614336519506</v>
       </c>
       <c r="T40" t="n">
-        <v>236.2837682760401</v>
+        <v>221.0757856313984</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9590661918006</v>
+        <v>264.9737732114418</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>256.1644742372422</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>263.082458147601</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -25639,16 +25639,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>403.6235982272359</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1873416079885</v>
+        <v>404.0696490978407</v>
       </c>
       <c r="H41" t="n">
-        <v>303.153370424964</v>
+        <v>301.9480520054133</v>
       </c>
       <c r="I41" t="n">
-        <v>67.99853108690158</v>
+        <v>63.4611905894301</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.5904949947116</v>
+        <v>120.9085769197195</v>
       </c>
       <c r="T41" t="n">
-        <v>217.9985240592434</v>
+        <v>202.5009117234406</v>
       </c>
       <c r="U41" t="n">
-        <v>254.4535940504364</v>
+        <v>254.4441786496245</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>331.3567657442531</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>364.9402844835521</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -25721,13 +25721,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>105.6774822426766</v>
+        <v>105.614511198214</v>
       </c>
       <c r="H42" t="n">
-        <v>67.69548664993043</v>
+        <v>67.08731893104213</v>
       </c>
       <c r="I42" t="n">
-        <v>12.18397769576295</v>
+        <v>10.01589568246906</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,22 +25757,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>102.4015191999815</v>
+        <v>101.2318596679688</v>
       </c>
       <c r="T42" t="n">
-        <v>156.7700756945035</v>
+        <v>156.5162581951128</v>
       </c>
       <c r="U42" t="n">
-        <v>195.3613337192077</v>
+        <v>180.3747775147041</v>
       </c>
       <c r="V42" t="n">
-        <v>211.5744117368965</v>
+        <v>196.5919983642655</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>197.9043268824211</v>
       </c>
       <c r="X42" t="n">
-        <v>174.5627220424961</v>
+        <v>159.5803086698651</v>
       </c>
       <c r="Y42" t="n">
         <v>157.8079400398083</v>
@@ -25794,19 +25794,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>144.3192936077327</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>149.7883049319013</v>
       </c>
       <c r="G43" t="n">
-        <v>165.3743910588764</v>
+        <v>150.3391848779025</v>
       </c>
       <c r="H43" t="n">
-        <v>146.3021152741505</v>
+        <v>145.8327392145199</v>
       </c>
       <c r="I43" t="n">
-        <v>109.062902574934</v>
+        <v>107.4752788476761</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>75.27006628211034</v>
+        <v>72.89630964516418</v>
       </c>
       <c r="S43" t="n">
-        <v>180.9814683209813</v>
+        <v>180.0614336519506</v>
       </c>
       <c r="T43" t="n">
-        <v>236.2837682760401</v>
+        <v>236.0581990040295</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9590661918006</v>
+        <v>279.9561865840728</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>256.1644742372422</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -25870,7 +25870,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>336.7862001149961</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -25879,13 +25879,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>347.7629015426402</v>
+        <v>389.0872357252097</v>
       </c>
       <c r="H44" t="n">
-        <v>299.2984209650525</v>
+        <v>301.9480520054133</v>
       </c>
       <c r="I44" t="n">
-        <v>53.48683192388533</v>
+        <v>63.4611905894301</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>115.0129618988752</v>
+        <v>120.9085769197195</v>
       </c>
       <c r="T44" t="n">
-        <v>216.3507719527366</v>
+        <v>204.2868153974582</v>
       </c>
       <c r="U44" t="n">
-        <v>190.7903904408244</v>
+        <v>254.4441786496245</v>
       </c>
       <c r="V44" t="n">
-        <v>282.7060886240101</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>364.9402844835521</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>381.654550480106</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25952,19 +25952,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>68.4896995032359</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>44.23719052644648</v>
+        <v>94.67377132070706</v>
       </c>
       <c r="G45" t="n">
-        <v>105.4760830191159</v>
+        <v>90.63209782558303</v>
       </c>
       <c r="H45" t="n">
-        <v>65.75039414869914</v>
+        <v>67.08731893104213</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.01589568246906</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,19 +25994,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>98.66061695533371</v>
+        <v>86.2494462953378</v>
       </c>
       <c r="T45" t="n">
-        <v>155.9582954907653</v>
+        <v>141.5338448224818</v>
       </c>
       <c r="U45" t="n">
-        <v>131.7149932774152</v>
+        <v>195.3571908873351</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>147.4677460881605</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
@@ -26025,25 +26025,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>154.4000253412696</v>
       </c>
       <c r="D46" t="n">
-        <v>101.8516721241957</v>
+        <v>144.7031885317057</v>
       </c>
       <c r="E46" t="n">
-        <v>95.66861648748974</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.2055447152815</v>
+        <v>165.3215982505335</v>
       </c>
       <c r="H46" t="n">
-        <v>144.8009177829157</v>
+        <v>145.8327392145199</v>
       </c>
       <c r="I46" t="n">
-        <v>103.9852325330068</v>
+        <v>107.4752788476761</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.045030194504783</v>
+        <v>72.89630964516418</v>
       </c>
       <c r="S46" t="n">
-        <v>114.4058465492759</v>
+        <v>165.0790202793196</v>
       </c>
       <c r="T46" t="n">
-        <v>235.5623338988618</v>
+        <v>221.0757856313984</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9498563912409</v>
+        <v>279.9561865840728</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>147935.7948988661</v>
+        <v>147557.6180048371</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>147935.7948988661</v>
+        <v>147557.6180048371</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>147935.7948988661</v>
+        <v>159655.7747341278</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147935.7948988661</v>
+        <v>159655.7747341278</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>147935.7948988661</v>
+        <v>159655.7747341278</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>147935.7948988661</v>
+        <v>159655.7747341278</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>147935.7948988661</v>
+        <v>159655.7747341278</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>147935.7948988661</v>
+        <v>159655.7747341278</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>147935.7948988661</v>
+        <v>159655.7747341278</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>199520.4730146218</v>
+        <v>159655.7747341278</v>
       </c>
     </row>
   </sheetData>
@@ -26325,37 +26325,37 @@
         <v>35351.71294973807</v>
       </c>
       <c r="F2" t="n">
-        <v>35351.71294973807</v>
+        <v>35351.71294973808</v>
       </c>
       <c r="G2" t="n">
-        <v>35351.71294973806</v>
+        <v>35442.34058498463</v>
       </c>
       <c r="H2" t="n">
-        <v>35351.71294973808</v>
+        <v>35442.34058498463</v>
       </c>
       <c r="I2" t="n">
-        <v>35351.71294973805</v>
+        <v>38686.09094032877</v>
       </c>
       <c r="J2" t="n">
-        <v>35351.71294973807</v>
+        <v>38686.09094032877</v>
       </c>
       <c r="K2" t="n">
-        <v>35351.71294973807</v>
+        <v>38686.09094032877</v>
       </c>
       <c r="L2" t="n">
-        <v>35351.71294973807</v>
+        <v>38686.09094032876</v>
       </c>
       <c r="M2" t="n">
-        <v>35351.71294973807</v>
+        <v>38686.09094032877</v>
       </c>
       <c r="N2" t="n">
-        <v>35351.71294973807</v>
+        <v>38686.09094032877</v>
       </c>
       <c r="O2" t="n">
-        <v>35351.71294973807</v>
+        <v>38686.09094032877</v>
       </c>
       <c r="P2" t="n">
-        <v>49132.43980101508</v>
+        <v>38686.09094032875</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5679.121352572058</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20523.20336390528</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>77361.06734176687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>19400.90910273512</v>
       </c>
       <c r="E4" t="n">
-        <v>6528.943099913911</v>
+        <v>6528.94309991391</v>
       </c>
       <c r="F4" t="n">
-        <v>6528.943099913911</v>
+        <v>6528.94309991391</v>
       </c>
       <c r="G4" t="n">
-        <v>6528.943099913911</v>
+        <v>5788.255664898632</v>
       </c>
       <c r="H4" t="n">
-        <v>6528.943099913911</v>
+        <v>5788.255664898632</v>
       </c>
       <c r="I4" t="n">
-        <v>6528.94309991391</v>
+        <v>4924.40299526959</v>
       </c>
       <c r="J4" t="n">
-        <v>6528.943099913911</v>
+        <v>4924.402995269589</v>
       </c>
       <c r="K4" t="n">
-        <v>6528.94309991391</v>
+        <v>4924.402995269589</v>
       </c>
       <c r="L4" t="n">
-        <v>6528.943099913911</v>
+        <v>4924.402995269591</v>
       </c>
       <c r="M4" t="n">
-        <v>6528.943099913911</v>
+        <v>4924.402995269591</v>
       </c>
       <c r="N4" t="n">
-        <v>6528.943099913911</v>
+        <v>4924.402995269591</v>
       </c>
       <c r="O4" t="n">
-        <v>6528.943099913911</v>
+        <v>4924.40299526959</v>
       </c>
       <c r="P4" t="n">
-        <v>3045.893341396184</v>
+        <v>4924.40299526959</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>2460.082911003373</v>
       </c>
       <c r="G5" t="n">
-        <v>2460.082911003373</v>
+        <v>2619.32010144652</v>
       </c>
       <c r="H5" t="n">
-        <v>2460.082911003373</v>
+        <v>2619.32010144652</v>
       </c>
       <c r="I5" t="n">
-        <v>2460.082911003373</v>
+        <v>4009.230703463099</v>
       </c>
       <c r="J5" t="n">
-        <v>2460.082911003373</v>
+        <v>4009.230703463099</v>
       </c>
       <c r="K5" t="n">
-        <v>2460.082911003373</v>
+        <v>4009.230703463099</v>
       </c>
       <c r="L5" t="n">
-        <v>2460.082911003373</v>
+        <v>4009.230703463099</v>
       </c>
       <c r="M5" t="n">
-        <v>2460.082911003373</v>
+        <v>4009.230703463099</v>
       </c>
       <c r="N5" t="n">
-        <v>2460.082911003373</v>
+        <v>4009.230703463099</v>
       </c>
       <c r="O5" t="n">
-        <v>2460.082911003373</v>
+        <v>4009.230703463099</v>
       </c>
       <c r="P5" t="n">
-        <v>8370.173610356696</v>
+        <v>4009.230703463099</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19076.91817294865</v>
+        <v>-20463.23073948903</v>
       </c>
       <c r="C6" t="n">
-        <v>-19076.91817294865</v>
+        <v>-20463.23073948903</v>
       </c>
       <c r="D6" t="n">
-        <v>-19076.91817294865</v>
+        <v>-20463.23073948903</v>
       </c>
       <c r="E6" t="n">
-        <v>-64299.60622397018</v>
+        <v>-65675.91791893948</v>
       </c>
       <c r="F6" t="n">
-        <v>26362.68693882079</v>
+        <v>24986.3752438515</v>
       </c>
       <c r="G6" t="n">
-        <v>26362.68693882077</v>
+        <v>19979.97911134988</v>
       </c>
       <c r="H6" t="n">
-        <v>26362.6869388208</v>
+        <v>25659.10046392194</v>
       </c>
       <c r="I6" t="n">
-        <v>26362.68693882077</v>
+        <v>7876.759168368581</v>
       </c>
       <c r="J6" t="n">
-        <v>26362.68693882079</v>
+        <v>28399.96253227386</v>
       </c>
       <c r="K6" t="n">
-        <v>26362.68693882079</v>
+        <v>28399.96253227386</v>
       </c>
       <c r="L6" t="n">
-        <v>26362.68693882078</v>
+        <v>28399.96253227384</v>
       </c>
       <c r="M6" t="n">
-        <v>26362.68693882078</v>
+        <v>28399.96253227386</v>
       </c>
       <c r="N6" t="n">
-        <v>26362.68693882078</v>
+        <v>28399.96253227385</v>
       </c>
       <c r="O6" t="n">
-        <v>26362.68693882079</v>
+        <v>28399.96253227385</v>
       </c>
       <c r="P6" t="n">
-        <v>-39644.69449250467</v>
+        <v>28399.96253227384</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>112.8478399542832</v>
       </c>
       <c r="G3" t="n">
-        <v>112.8478399542832</v>
+        <v>120.1522982314917</v>
       </c>
       <c r="H3" t="n">
-        <v>112.8478399542832</v>
+        <v>120.1522982314917</v>
       </c>
       <c r="I3" t="n">
-        <v>112.8478399542832</v>
+        <v>142.1238518535382</v>
       </c>
       <c r="J3" t="n">
-        <v>112.8478399542832</v>
+        <v>142.1238518535382</v>
       </c>
       <c r="K3" t="n">
-        <v>112.8478399542832</v>
+        <v>142.1238518535382</v>
       </c>
       <c r="L3" t="n">
-        <v>112.8478399542832</v>
+        <v>142.1238518535382</v>
       </c>
       <c r="M3" t="n">
-        <v>112.8478399542832</v>
+        <v>142.1238518535382</v>
       </c>
       <c r="N3" t="n">
-        <v>112.8478399542832</v>
+        <v>142.1238518535382</v>
       </c>
       <c r="O3" t="n">
-        <v>112.8478399542832</v>
+        <v>142.1238518535382</v>
       </c>
       <c r="P3" t="n">
-        <v>206.480812311466</v>
+        <v>142.1238518535382</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="P4" t="n">
-        <v>63.63309049287398</v>
+        <v>14.98241337263102</v>
       </c>
     </row>
   </sheetData>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7.304458277208568</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>21.97155362204647</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>93.63297235718279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>63.63309049287398</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31755,7 +31755,7 @@
         <v>0.4536596581076707</v>
       </c>
       <c r="H11" t="n">
-        <v>4.646041973595183</v>
+        <v>4.646041973595184</v>
       </c>
       <c r="I11" t="n">
         <v>17.48971396919599</v>
@@ -31764,13 +31764,13 @@
         <v>38.50379640731595</v>
       </c>
       <c r="K11" t="n">
-        <v>57.70720973501366</v>
+        <v>57.70720973501367</v>
       </c>
       <c r="L11" t="n">
         <v>71.5908964968263</v>
       </c>
       <c r="M11" t="n">
-        <v>79.65866644169859</v>
+        <v>79.6586664416986</v>
       </c>
       <c r="N11" t="n">
         <v>80.94762694529702</v>
@@ -31791,7 +31791,7 @@
         <v>10.33776945912856</v>
       </c>
       <c r="T11" t="n">
-        <v>1.98589515336633</v>
+        <v>1.985895153366329</v>
       </c>
       <c r="U11" t="n">
         <v>0.03629277264861365</v>
@@ -31846,7 +31846,7 @@
         <v>39.19546154336646</v>
       </c>
       <c r="L12" t="n">
-        <v>52.70313506544141</v>
+        <v>52.70313506544142</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
@@ -31858,10 +31858,10 @@
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>46.35065335782624</v>
+        <v>46.35065335782625</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.98418428329677</v>
+        <v>30.98418428329678</v>
       </c>
       <c r="R12" t="n">
         <v>15.07050964521541</v>
@@ -31873,7 +31873,7 @@
         <v>0.9783694803583604</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01596903395579479</v>
+        <v>0.0159690339557948</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.4830243144984589</v>
       </c>
       <c r="H17" t="n">
-        <v>4.646041973595183</v>
+        <v>4.946772760857344</v>
       </c>
       <c r="I17" t="n">
-        <v>17.48971396919599</v>
+        <v>18.62179488470186</v>
       </c>
       <c r="J17" t="n">
-        <v>38.50379640731595</v>
+        <v>40.99608491266361</v>
       </c>
       <c r="K17" t="n">
-        <v>57.70720973501366</v>
+        <v>61.44250414538339</v>
       </c>
       <c r="L17" t="n">
-        <v>71.5908964968263</v>
+        <v>76.22485951021562</v>
       </c>
       <c r="M17" t="n">
-        <v>79.65866644169859</v>
+        <v>84.81484316317758</v>
       </c>
       <c r="N17" t="n">
-        <v>80.94762694529702</v>
+        <v>86.18723599674634</v>
       </c>
       <c r="O17" t="n">
-        <v>76.43654871998886</v>
+        <v>81.38416296945228</v>
       </c>
       <c r="P17" t="n">
-        <v>65.23682591045574</v>
+        <v>69.45950020527157</v>
       </c>
       <c r="Q17" t="n">
-        <v>48.99013940447476</v>
+        <v>52.16119194229549</v>
       </c>
       <c r="R17" t="n">
-        <v>28.497198498606</v>
+        <v>30.34177609561385</v>
       </c>
       <c r="S17" t="n">
-        <v>10.33776945912856</v>
+        <v>11.00691656663364</v>
       </c>
       <c r="T17" t="n">
-        <v>1.98589515336633</v>
+        <v>2.114438936717005</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.03864194515987671</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.2584407924224539</v>
       </c>
       <c r="H18" t="n">
-        <v>2.344254184710675</v>
+        <v>2.495993968922122</v>
       </c>
       <c r="I18" t="n">
-        <v>8.357127770199273</v>
+        <v>8.898071142615192</v>
       </c>
       <c r="J18" t="n">
-        <v>22.93259736278504</v>
+        <v>24.41698732268457</v>
       </c>
       <c r="K18" t="n">
-        <v>39.19546154336646</v>
+        <v>41.73252041498898</v>
       </c>
       <c r="L18" t="n">
-        <v>52.70313506544141</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
@@ -32332,22 +32332,22 @@
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>46.35065335782624</v>
+        <v>49.35085623021403</v>
       </c>
       <c r="Q18" t="n">
-        <v>30.98418428329677</v>
+        <v>32.98974045027676</v>
       </c>
       <c r="R18" t="n">
-        <v>15.07050964521541</v>
+        <v>16.04599937514149</v>
       </c>
       <c r="S18" t="n">
-        <v>4.508590586852725</v>
+        <v>4.800424368022332</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.041697755422084</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01596903395579479</v>
+        <v>0.01700268371200355</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2166680787780998</v>
       </c>
       <c r="H19" t="n">
-        <v>1.809265368447361</v>
+        <v>1.926376191318016</v>
       </c>
       <c r="I19" t="n">
-        <v>6.119682861783096</v>
+        <v>6.515800041799586</v>
       </c>
       <c r="J19" t="n">
-        <v>14.38717461187639</v>
+        <v>15.31843316961166</v>
       </c>
       <c r="K19" t="n">
-        <v>23.64254745271703</v>
+        <v>25.17289133440105</v>
       </c>
       <c r="L19" t="n">
-        <v>30.25432089528438</v>
+        <v>32.21263418488223</v>
       </c>
       <c r="M19" t="n">
-        <v>31.89893941527384</v>
+        <v>33.96370620337068</v>
       </c>
       <c r="N19" t="n">
-        <v>31.14045393361393</v>
+        <v>33.15612518247052</v>
       </c>
       <c r="O19" t="n">
-        <v>28.76324943621632</v>
+        <v>30.62504808038089</v>
       </c>
       <c r="P19" t="n">
-        <v>24.61192889757021</v>
+        <v>26.20501927330763</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.04002383309676</v>
+        <v>18.14299703295525</v>
       </c>
       <c r="R19" t="n">
-        <v>9.149924859244006</v>
+        <v>9.742184705786196</v>
       </c>
       <c r="S19" t="n">
-        <v>3.546382117907553</v>
+        <v>3.775933700160157</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8694833570248045</v>
+        <v>0.9257636093246081</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01181825884244182</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.4830243144984589</v>
       </c>
       <c r="H20" t="n">
-        <v>4.646041973595183</v>
+        <v>4.946772760857344</v>
       </c>
       <c r="I20" t="n">
-        <v>17.48971396919599</v>
+        <v>18.62179488470186</v>
       </c>
       <c r="J20" t="n">
-        <v>38.50379640731595</v>
+        <v>40.99608491266361</v>
       </c>
       <c r="K20" t="n">
-        <v>57.70720973501366</v>
+        <v>61.44250414538339</v>
       </c>
       <c r="L20" t="n">
-        <v>71.5908964968263</v>
+        <v>76.22485951021562</v>
       </c>
       <c r="M20" t="n">
-        <v>79.65866644169859</v>
+        <v>84.81484316317758</v>
       </c>
       <c r="N20" t="n">
-        <v>80.94762694529702</v>
+        <v>86.18723599674634</v>
       </c>
       <c r="O20" t="n">
-        <v>76.43654871998886</v>
+        <v>81.38416296945228</v>
       </c>
       <c r="P20" t="n">
-        <v>65.23682591045574</v>
+        <v>69.45950020527157</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.99013940447476</v>
+        <v>52.16119194229549</v>
       </c>
       <c r="R20" t="n">
-        <v>28.497198498606</v>
+        <v>30.34177609561385</v>
       </c>
       <c r="S20" t="n">
-        <v>10.33776945912856</v>
+        <v>11.00691656663364</v>
       </c>
       <c r="T20" t="n">
-        <v>1.98589515336633</v>
+        <v>2.114438936717005</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.03864194515987671</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.2584407924224539</v>
       </c>
       <c r="H21" t="n">
-        <v>2.344254184710675</v>
+        <v>2.495993968922122</v>
       </c>
       <c r="I21" t="n">
-        <v>8.357127770199273</v>
+        <v>8.898071142615192</v>
       </c>
       <c r="J21" t="n">
-        <v>22.93259736278504</v>
+        <v>24.41698732268457</v>
       </c>
       <c r="K21" t="n">
-        <v>39.19546154336646</v>
+        <v>41.73252041498898</v>
       </c>
       <c r="L21" t="n">
-        <v>52.70313506544141</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
@@ -32569,22 +32569,22 @@
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>46.35065335782624</v>
+        <v>49.35085623021403</v>
       </c>
       <c r="Q21" t="n">
-        <v>30.98418428329677</v>
+        <v>32.98974045027676</v>
       </c>
       <c r="R21" t="n">
-        <v>15.07050964521541</v>
+        <v>16.04599937514149</v>
       </c>
       <c r="S21" t="n">
-        <v>4.508590586852725</v>
+        <v>4.800424368022332</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.041697755422084</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01596903395579479</v>
+        <v>0.01700268371200355</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2166680787780998</v>
       </c>
       <c r="H22" t="n">
-        <v>1.809265368447361</v>
+        <v>1.926376191318016</v>
       </c>
       <c r="I22" t="n">
-        <v>6.119682861783096</v>
+        <v>6.515800041799586</v>
       </c>
       <c r="J22" t="n">
-        <v>14.38717461187639</v>
+        <v>15.31843316961166</v>
       </c>
       <c r="K22" t="n">
-        <v>23.64254745271703</v>
+        <v>25.17289133440105</v>
       </c>
       <c r="L22" t="n">
-        <v>30.25432089528438</v>
+        <v>32.21263418488223</v>
       </c>
       <c r="M22" t="n">
-        <v>31.89893941527384</v>
+        <v>33.96370620337068</v>
       </c>
       <c r="N22" t="n">
-        <v>31.14045393361393</v>
+        <v>33.15612518247052</v>
       </c>
       <c r="O22" t="n">
-        <v>28.76324943621632</v>
+        <v>30.62504808038089</v>
       </c>
       <c r="P22" t="n">
-        <v>24.61192889757021</v>
+        <v>26.20501927330763</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.04002383309676</v>
+        <v>18.14299703295525</v>
       </c>
       <c r="R22" t="n">
-        <v>9.149924859244006</v>
+        <v>9.742184705786196</v>
       </c>
       <c r="S22" t="n">
-        <v>3.546382117907553</v>
+        <v>3.775933700160157</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8694833570248045</v>
+        <v>0.9257636093246081</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01181825884244182</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.5713521682554296</v>
       </c>
       <c r="H23" t="n">
-        <v>4.646041973595184</v>
+        <v>5.85136039314592</v>
       </c>
       <c r="I23" t="n">
-        <v>17.48971396919599</v>
+        <v>22.02705446666747</v>
       </c>
       <c r="J23" t="n">
-        <v>38.50379640731595</v>
+        <v>48.49280109046931</v>
       </c>
       <c r="K23" t="n">
-        <v>57.70720973501367</v>
+        <v>72.67813837272166</v>
       </c>
       <c r="L23" t="n">
-        <v>71.5908964968263</v>
+        <v>90.16365729196878</v>
       </c>
       <c r="M23" t="n">
-        <v>79.6586664416986</v>
+        <v>100.3244414141813</v>
       </c>
       <c r="N23" t="n">
-        <v>80.94762694529702</v>
+        <v>101.947795762237</v>
       </c>
       <c r="O23" t="n">
-        <v>76.43654871998886</v>
+        <v>96.26641263914708</v>
       </c>
       <c r="P23" t="n">
-        <v>65.23682591045574</v>
+        <v>82.16115598534115</v>
       </c>
       <c r="Q23" t="n">
-        <v>48.99013940447476</v>
+        <v>61.69960645969356</v>
       </c>
       <c r="R23" t="n">
-        <v>28.497198498606</v>
+        <v>35.89020063917516</v>
       </c>
       <c r="S23" t="n">
-        <v>10.33776945912856</v>
+        <v>13.01968753412061</v>
       </c>
       <c r="T23" t="n">
-        <v>1.985895153366329</v>
+        <v>2.501094116538144</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.04570817346043436</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.3057003605906294</v>
       </c>
       <c r="H24" t="n">
-        <v>2.344254184710675</v>
+        <v>2.952421903598974</v>
       </c>
       <c r="I24" t="n">
-        <v>8.357127770199273</v>
+        <v>10.52520978349316</v>
       </c>
       <c r="J24" t="n">
-        <v>22.93259736278504</v>
+        <v>28.88198012053837</v>
       </c>
       <c r="K24" t="n">
-        <v>39.19546154336646</v>
+        <v>49.36390428011054</v>
       </c>
       <c r="L24" t="n">
-        <v>52.70313506544142</v>
+        <v>66.37586118876801</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>72.54669711104845</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>68.17580676638102</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>72.73389237263102</v>
       </c>
       <c r="P24" t="n">
-        <v>46.35065335782625</v>
+        <v>58.37536096225799</v>
       </c>
       <c r="Q24" t="n">
-        <v>30.98418428329678</v>
+        <v>39.0223828711828</v>
       </c>
       <c r="R24" t="n">
-        <v>15.07050964521541</v>
+        <v>18.98023817772347</v>
       </c>
       <c r="S24" t="n">
-        <v>4.508590586852725</v>
+        <v>5.678250118865415</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.232186979749071</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0159690339557948</v>
+        <v>0.02011186582833089</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2562889131785115</v>
       </c>
       <c r="H25" t="n">
-        <v>1.809265368447361</v>
+        <v>2.27864142807804</v>
       </c>
       <c r="I25" t="n">
-        <v>6.119682861783096</v>
+        <v>7.707306589041058</v>
       </c>
       <c r="J25" t="n">
-        <v>14.38717461187639</v>
+        <v>18.11962616172076</v>
       </c>
       <c r="K25" t="n">
-        <v>23.64254745271703</v>
+        <v>29.7761119129216</v>
       </c>
       <c r="L25" t="n">
-        <v>30.25432089528438</v>
+        <v>38.10317169201252</v>
       </c>
       <c r="M25" t="n">
-        <v>31.89893941527384</v>
+        <v>40.17445209033703</v>
       </c>
       <c r="N25" t="n">
-        <v>31.14045393361393</v>
+        <v>39.21919341394443</v>
       </c>
       <c r="O25" t="n">
-        <v>28.76324943621632</v>
+        <v>36.22527292817725</v>
       </c>
       <c r="P25" t="n">
-        <v>24.61192889757021</v>
+        <v>30.9969790993356</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.04002383309676</v>
+        <v>21.46070162988427</v>
       </c>
       <c r="R25" t="n">
-        <v>9.149924859244006</v>
+        <v>11.52368149619016</v>
       </c>
       <c r="S25" t="n">
-        <v>3.546382117907553</v>
+        <v>4.46641678693824</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8694833570248045</v>
+        <v>1.095052629035458</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01397939526428246</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.5713521682554296</v>
       </c>
       <c r="H26" t="n">
-        <v>4.646041973595183</v>
+        <v>5.85136039314592</v>
       </c>
       <c r="I26" t="n">
-        <v>17.48971396919599</v>
+        <v>22.02705446666747</v>
       </c>
       <c r="J26" t="n">
-        <v>38.50379640731595</v>
+        <v>48.49280109046931</v>
       </c>
       <c r="K26" t="n">
-        <v>57.70720973501366</v>
+        <v>72.67813837272166</v>
       </c>
       <c r="L26" t="n">
-        <v>71.5908964968263</v>
+        <v>90.16365729196878</v>
       </c>
       <c r="M26" t="n">
-        <v>79.65866644169859</v>
+        <v>100.3244414141813</v>
       </c>
       <c r="N26" t="n">
-        <v>80.94762694529702</v>
+        <v>101.947795762237</v>
       </c>
       <c r="O26" t="n">
-        <v>76.43654871998886</v>
+        <v>96.26641263914708</v>
       </c>
       <c r="P26" t="n">
-        <v>65.23682591045574</v>
+        <v>82.16115598534115</v>
       </c>
       <c r="Q26" t="n">
-        <v>48.99013940447476</v>
+        <v>61.69960645969356</v>
       </c>
       <c r="R26" t="n">
-        <v>28.497198498606</v>
+        <v>35.89020063917516</v>
       </c>
       <c r="S26" t="n">
-        <v>10.33776945912856</v>
+        <v>13.01968753412061</v>
       </c>
       <c r="T26" t="n">
-        <v>1.98589515336633</v>
+        <v>2.501094116538144</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.04570817346043436</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.3057003605906294</v>
       </c>
       <c r="H27" t="n">
-        <v>2.344254184710675</v>
+        <v>2.952421903598974</v>
       </c>
       <c r="I27" t="n">
-        <v>8.357127770199273</v>
+        <v>10.52520978349316</v>
       </c>
       <c r="J27" t="n">
-        <v>22.93259736278504</v>
+        <v>28.88198012053837</v>
       </c>
       <c r="K27" t="n">
-        <v>39.19546154336646</v>
+        <v>49.36390428011054</v>
       </c>
       <c r="L27" t="n">
-        <v>52.70313506544141</v>
+        <v>66.37586118876801</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>72.54669711104845</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>68.17580676638102</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>72.73389237263102</v>
       </c>
       <c r="P27" t="n">
-        <v>46.35065335782624</v>
+        <v>58.37536096225799</v>
       </c>
       <c r="Q27" t="n">
-        <v>30.98418428329677</v>
+        <v>39.0223828711828</v>
       </c>
       <c r="R27" t="n">
-        <v>15.07050964521541</v>
+        <v>18.98023817772347</v>
       </c>
       <c r="S27" t="n">
-        <v>4.508590586852725</v>
+        <v>5.678250118865415</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.232186979749071</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01596903395579479</v>
+        <v>0.02011186582833089</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2562889131785115</v>
       </c>
       <c r="H28" t="n">
-        <v>1.809265368447361</v>
+        <v>2.27864142807804</v>
       </c>
       <c r="I28" t="n">
-        <v>6.119682861783096</v>
+        <v>7.707306589041058</v>
       </c>
       <c r="J28" t="n">
-        <v>14.38717461187639</v>
+        <v>18.11962616172076</v>
       </c>
       <c r="K28" t="n">
-        <v>23.64254745271703</v>
+        <v>29.7761119129216</v>
       </c>
       <c r="L28" t="n">
-        <v>30.25432089528438</v>
+        <v>38.10317169201252</v>
       </c>
       <c r="M28" t="n">
-        <v>31.89893941527384</v>
+        <v>40.17445209033703</v>
       </c>
       <c r="N28" t="n">
-        <v>31.14045393361393</v>
+        <v>39.21919341394443</v>
       </c>
       <c r="O28" t="n">
-        <v>28.76324943621632</v>
+        <v>36.22527292817725</v>
       </c>
       <c r="P28" t="n">
-        <v>24.61192889757021</v>
+        <v>30.9969790993356</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.04002383309676</v>
+        <v>21.46070162988427</v>
       </c>
       <c r="R28" t="n">
-        <v>9.149924859244006</v>
+        <v>11.52368149619016</v>
       </c>
       <c r="S28" t="n">
-        <v>3.546382117907553</v>
+        <v>4.46641678693824</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8694833570248045</v>
+        <v>1.095052629035458</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01397939526428246</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.5713521682554296</v>
       </c>
       <c r="H29" t="n">
-        <v>4.646041973595184</v>
+        <v>5.85136039314592</v>
       </c>
       <c r="I29" t="n">
-        <v>17.48971396919599</v>
+        <v>22.02705446666747</v>
       </c>
       <c r="J29" t="n">
-        <v>38.50379640731595</v>
+        <v>48.49280109046931</v>
       </c>
       <c r="K29" t="n">
-        <v>57.70720973501367</v>
+        <v>72.67813837272166</v>
       </c>
       <c r="L29" t="n">
-        <v>71.5908964968263</v>
+        <v>90.16365729196878</v>
       </c>
       <c r="M29" t="n">
-        <v>79.6586664416986</v>
+        <v>100.3244414141813</v>
       </c>
       <c r="N29" t="n">
-        <v>80.94762694529702</v>
+        <v>101.947795762237</v>
       </c>
       <c r="O29" t="n">
-        <v>76.43654871998886</v>
+        <v>96.26641263914708</v>
       </c>
       <c r="P29" t="n">
-        <v>65.23682591045574</v>
+        <v>82.16115598534115</v>
       </c>
       <c r="Q29" t="n">
-        <v>48.99013940447476</v>
+        <v>61.69960645969356</v>
       </c>
       <c r="R29" t="n">
-        <v>28.497198498606</v>
+        <v>35.89020063917516</v>
       </c>
       <c r="S29" t="n">
-        <v>10.33776945912856</v>
+        <v>13.01968753412061</v>
       </c>
       <c r="T29" t="n">
-        <v>1.985895153366329</v>
+        <v>2.501094116538144</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.04570817346043436</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.3057003605906294</v>
       </c>
       <c r="H30" t="n">
-        <v>2.344254184710675</v>
+        <v>2.952421903598974</v>
       </c>
       <c r="I30" t="n">
-        <v>8.357127770199273</v>
+        <v>10.52520978349316</v>
       </c>
       <c r="J30" t="n">
-        <v>22.93259736278504</v>
+        <v>28.88198012053837</v>
       </c>
       <c r="K30" t="n">
-        <v>39.19546154336646</v>
+        <v>49.36390428011054</v>
       </c>
       <c r="L30" t="n">
-        <v>52.70313506544142</v>
+        <v>66.37586118876801</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>72.54669711104845</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>68.17580676638102</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>72.73389237263102</v>
       </c>
       <c r="P30" t="n">
-        <v>46.35065335782625</v>
+        <v>58.37536096225799</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.98418428329678</v>
+        <v>39.0223828711828</v>
       </c>
       <c r="R30" t="n">
-        <v>15.07050964521541</v>
+        <v>18.98023817772347</v>
       </c>
       <c r="S30" t="n">
-        <v>4.508590586852725</v>
+        <v>5.678250118865415</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.232186979749071</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0159690339557948</v>
+        <v>0.02011186582833089</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2562889131785115</v>
       </c>
       <c r="H31" t="n">
-        <v>1.809265368447361</v>
+        <v>2.27864142807804</v>
       </c>
       <c r="I31" t="n">
-        <v>6.119682861783096</v>
+        <v>7.707306589041058</v>
       </c>
       <c r="J31" t="n">
-        <v>14.38717461187639</v>
+        <v>18.11962616172076</v>
       </c>
       <c r="K31" t="n">
-        <v>23.64254745271703</v>
+        <v>29.7761119129216</v>
       </c>
       <c r="L31" t="n">
-        <v>30.25432089528438</v>
+        <v>38.10317169201252</v>
       </c>
       <c r="M31" t="n">
-        <v>31.89893941527384</v>
+        <v>40.17445209033703</v>
       </c>
       <c r="N31" t="n">
-        <v>31.14045393361393</v>
+        <v>39.21919341394443</v>
       </c>
       <c r="O31" t="n">
-        <v>28.76324943621632</v>
+        <v>36.22527292817725</v>
       </c>
       <c r="P31" t="n">
-        <v>24.61192889757021</v>
+        <v>30.9969790993356</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.04002383309676</v>
+        <v>21.46070162988427</v>
       </c>
       <c r="R31" t="n">
-        <v>9.149924859244006</v>
+        <v>11.52368149619016</v>
       </c>
       <c r="S31" t="n">
-        <v>3.546382117907553</v>
+        <v>4.46641678693824</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8694833570248045</v>
+        <v>1.095052629035458</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01397939526428246</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.5713521682554296</v>
       </c>
       <c r="H32" t="n">
-        <v>4.646041973595183</v>
+        <v>5.85136039314592</v>
       </c>
       <c r="I32" t="n">
-        <v>17.48971396919599</v>
+        <v>22.02705446666747</v>
       </c>
       <c r="J32" t="n">
-        <v>38.50379640731595</v>
+        <v>48.49280109046931</v>
       </c>
       <c r="K32" t="n">
-        <v>57.70720973501366</v>
+        <v>72.67813837272166</v>
       </c>
       <c r="L32" t="n">
-        <v>71.5908964968263</v>
+        <v>90.16365729196878</v>
       </c>
       <c r="M32" t="n">
-        <v>79.65866644169859</v>
+        <v>100.3244414141813</v>
       </c>
       <c r="N32" t="n">
-        <v>80.94762694529702</v>
+        <v>101.947795762237</v>
       </c>
       <c r="O32" t="n">
-        <v>76.43654871998886</v>
+        <v>96.26641263914708</v>
       </c>
       <c r="P32" t="n">
-        <v>65.23682591045574</v>
+        <v>82.16115598534115</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.99013940447476</v>
+        <v>61.69960645969356</v>
       </c>
       <c r="R32" t="n">
-        <v>28.497198498606</v>
+        <v>35.89020063917516</v>
       </c>
       <c r="S32" t="n">
-        <v>10.33776945912856</v>
+        <v>13.01968753412061</v>
       </c>
       <c r="T32" t="n">
-        <v>1.98589515336633</v>
+        <v>2.501094116538144</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.04570817346043436</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.3057003605906294</v>
       </c>
       <c r="H33" t="n">
-        <v>2.344254184710675</v>
+        <v>2.952421903598974</v>
       </c>
       <c r="I33" t="n">
-        <v>8.357127770199273</v>
+        <v>10.52520978349316</v>
       </c>
       <c r="J33" t="n">
-        <v>22.93259736278504</v>
+        <v>28.88198012053837</v>
       </c>
       <c r="K33" t="n">
-        <v>39.19546154336646</v>
+        <v>49.36390428011054</v>
       </c>
       <c r="L33" t="n">
-        <v>52.70313506544141</v>
+        <v>66.37586118876801</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>72.54669711104845</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>68.17580676638102</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>72.73389237263102</v>
       </c>
       <c r="P33" t="n">
-        <v>46.35065335782624</v>
+        <v>58.37536096225799</v>
       </c>
       <c r="Q33" t="n">
-        <v>30.98418428329677</v>
+        <v>39.0223828711828</v>
       </c>
       <c r="R33" t="n">
-        <v>15.07050964521541</v>
+        <v>18.98023817772347</v>
       </c>
       <c r="S33" t="n">
-        <v>4.508590586852725</v>
+        <v>5.678250118865415</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.232186979749071</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01596903395579479</v>
+        <v>0.02011186582833089</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2562889131785115</v>
       </c>
       <c r="H34" t="n">
-        <v>1.809265368447361</v>
+        <v>2.27864142807804</v>
       </c>
       <c r="I34" t="n">
-        <v>6.119682861783096</v>
+        <v>7.707306589041058</v>
       </c>
       <c r="J34" t="n">
-        <v>14.38717461187639</v>
+        <v>18.11962616172076</v>
       </c>
       <c r="K34" t="n">
-        <v>23.64254745271703</v>
+        <v>29.7761119129216</v>
       </c>
       <c r="L34" t="n">
-        <v>30.25432089528438</v>
+        <v>38.10317169201252</v>
       </c>
       <c r="M34" t="n">
-        <v>31.89893941527384</v>
+        <v>40.17445209033703</v>
       </c>
       <c r="N34" t="n">
-        <v>31.14045393361393</v>
+        <v>39.21919341394443</v>
       </c>
       <c r="O34" t="n">
-        <v>28.76324943621632</v>
+        <v>36.22527292817725</v>
       </c>
       <c r="P34" t="n">
-        <v>24.61192889757021</v>
+        <v>30.9969790993356</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.04002383309676</v>
+        <v>21.46070162988427</v>
       </c>
       <c r="R34" t="n">
-        <v>9.149924859244006</v>
+        <v>11.52368149619016</v>
       </c>
       <c r="S34" t="n">
-        <v>3.546382117907553</v>
+        <v>4.46641678693824</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8694833570248045</v>
+        <v>1.095052629035458</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01397939526428246</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.5713521682554296</v>
       </c>
       <c r="H35" t="n">
-        <v>4.646041973595183</v>
+        <v>5.85136039314592</v>
       </c>
       <c r="I35" t="n">
-        <v>17.48971396919599</v>
+        <v>22.02705446666747</v>
       </c>
       <c r="J35" t="n">
-        <v>38.50379640731595</v>
+        <v>48.49280109046931</v>
       </c>
       <c r="K35" t="n">
-        <v>57.70720973501366</v>
+        <v>72.67813837272166</v>
       </c>
       <c r="L35" t="n">
-        <v>71.5908964968263</v>
+        <v>90.16365729196878</v>
       </c>
       <c r="M35" t="n">
-        <v>79.65866644169859</v>
+        <v>100.3244414141813</v>
       </c>
       <c r="N35" t="n">
-        <v>80.94762694529702</v>
+        <v>101.947795762237</v>
       </c>
       <c r="O35" t="n">
-        <v>76.43654871998886</v>
+        <v>96.26641263914708</v>
       </c>
       <c r="P35" t="n">
-        <v>65.23682591045574</v>
+        <v>82.16115598534115</v>
       </c>
       <c r="Q35" t="n">
-        <v>48.99013940447476</v>
+        <v>61.69960645969356</v>
       </c>
       <c r="R35" t="n">
-        <v>28.497198498606</v>
+        <v>35.89020063917516</v>
       </c>
       <c r="S35" t="n">
-        <v>10.33776945912856</v>
+        <v>13.01968753412061</v>
       </c>
       <c r="T35" t="n">
-        <v>1.98589515336633</v>
+        <v>2.501094116538144</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.04570817346043436</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.3057003605906294</v>
       </c>
       <c r="H36" t="n">
-        <v>2.344254184710675</v>
+        <v>2.952421903598974</v>
       </c>
       <c r="I36" t="n">
-        <v>8.357127770199273</v>
+        <v>10.52520978349316</v>
       </c>
       <c r="J36" t="n">
-        <v>22.93259736278504</v>
+        <v>28.88198012053837</v>
       </c>
       <c r="K36" t="n">
-        <v>39.19546154336646</v>
+        <v>49.36390428011054</v>
       </c>
       <c r="L36" t="n">
-        <v>52.70313506544141</v>
+        <v>66.37586118876801</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>72.54669711104845</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>68.17580676638102</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>72.73389237263102</v>
       </c>
       <c r="P36" t="n">
-        <v>46.35065335782624</v>
+        <v>58.37536096225799</v>
       </c>
       <c r="Q36" t="n">
-        <v>30.98418428329677</v>
+        <v>39.0223828711828</v>
       </c>
       <c r="R36" t="n">
-        <v>15.07050964521541</v>
+        <v>18.98023817772347</v>
       </c>
       <c r="S36" t="n">
-        <v>4.508590586852725</v>
+        <v>5.678250118865415</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.232186979749071</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01596903395579479</v>
+        <v>0.02011186582833089</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2562889131785115</v>
       </c>
       <c r="H37" t="n">
-        <v>1.809265368447361</v>
+        <v>2.27864142807804</v>
       </c>
       <c r="I37" t="n">
-        <v>6.119682861783096</v>
+        <v>7.707306589041058</v>
       </c>
       <c r="J37" t="n">
-        <v>14.38717461187639</v>
+        <v>18.11962616172076</v>
       </c>
       <c r="K37" t="n">
-        <v>23.64254745271703</v>
+        <v>29.7761119129216</v>
       </c>
       <c r="L37" t="n">
-        <v>30.25432089528438</v>
+        <v>38.10317169201252</v>
       </c>
       <c r="M37" t="n">
-        <v>31.89893941527384</v>
+        <v>40.17445209033703</v>
       </c>
       <c r="N37" t="n">
-        <v>31.14045393361393</v>
+        <v>39.21919341394443</v>
       </c>
       <c r="O37" t="n">
-        <v>28.76324943621632</v>
+        <v>36.22527292817725</v>
       </c>
       <c r="P37" t="n">
-        <v>24.61192889757021</v>
+        <v>30.9969790993356</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.04002383309676</v>
+        <v>21.46070162988427</v>
       </c>
       <c r="R37" t="n">
-        <v>9.149924859244006</v>
+        <v>11.52368149619016</v>
       </c>
       <c r="S37" t="n">
-        <v>3.546382117907553</v>
+        <v>4.46641678693824</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8694833570248045</v>
+        <v>1.095052629035458</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01397939526428246</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.5713521682554296</v>
       </c>
       <c r="H38" t="n">
-        <v>4.646041973595183</v>
+        <v>5.85136039314592</v>
       </c>
       <c r="I38" t="n">
-        <v>17.48971396919599</v>
+        <v>22.02705446666747</v>
       </c>
       <c r="J38" t="n">
-        <v>38.50379640731595</v>
+        <v>48.49280109046931</v>
       </c>
       <c r="K38" t="n">
-        <v>57.70720973501366</v>
+        <v>72.67813837272166</v>
       </c>
       <c r="L38" t="n">
-        <v>71.5908964968263</v>
+        <v>90.16365729196878</v>
       </c>
       <c r="M38" t="n">
-        <v>79.65866644169859</v>
+        <v>100.3244414141813</v>
       </c>
       <c r="N38" t="n">
-        <v>80.94762694529702</v>
+        <v>101.947795762237</v>
       </c>
       <c r="O38" t="n">
-        <v>76.43654871998886</v>
+        <v>96.26641263914708</v>
       </c>
       <c r="P38" t="n">
-        <v>65.23682591045574</v>
+        <v>82.16115598534115</v>
       </c>
       <c r="Q38" t="n">
-        <v>48.99013940447476</v>
+        <v>61.69960645969356</v>
       </c>
       <c r="R38" t="n">
-        <v>28.497198498606</v>
+        <v>35.89020063917516</v>
       </c>
       <c r="S38" t="n">
-        <v>10.33776945912856</v>
+        <v>13.01968753412061</v>
       </c>
       <c r="T38" t="n">
-        <v>1.98589515336633</v>
+        <v>2.501094116538144</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.04570817346043436</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.3057003605906294</v>
       </c>
       <c r="H39" t="n">
-        <v>2.344254184710675</v>
+        <v>2.952421903598974</v>
       </c>
       <c r="I39" t="n">
-        <v>8.357127770199273</v>
+        <v>10.52520978349316</v>
       </c>
       <c r="J39" t="n">
-        <v>22.93259736278504</v>
+        <v>28.88198012053837</v>
       </c>
       <c r="K39" t="n">
-        <v>39.19546154336646</v>
+        <v>49.36390428011054</v>
       </c>
       <c r="L39" t="n">
-        <v>52.70313506544141</v>
+        <v>66.37586118876801</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>72.54669711104845</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>68.17580676638102</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>72.73389237263102</v>
       </c>
       <c r="P39" t="n">
-        <v>46.35065335782624</v>
+        <v>58.37536096225799</v>
       </c>
       <c r="Q39" t="n">
-        <v>30.98418428329677</v>
+        <v>39.0223828711828</v>
       </c>
       <c r="R39" t="n">
-        <v>15.07050964521541</v>
+        <v>18.98023817772347</v>
       </c>
       <c r="S39" t="n">
-        <v>4.508590586852725</v>
+        <v>5.678250118865415</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.232186979749071</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01596903395579479</v>
+        <v>0.02011186582833089</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2562889131785115</v>
       </c>
       <c r="H40" t="n">
-        <v>1.809265368447361</v>
+        <v>2.27864142807804</v>
       </c>
       <c r="I40" t="n">
-        <v>6.119682861783096</v>
+        <v>7.707306589041058</v>
       </c>
       <c r="J40" t="n">
-        <v>14.38717461187639</v>
+        <v>18.11962616172076</v>
       </c>
       <c r="K40" t="n">
-        <v>23.64254745271703</v>
+        <v>29.7761119129216</v>
       </c>
       <c r="L40" t="n">
-        <v>30.25432089528438</v>
+        <v>38.10317169201252</v>
       </c>
       <c r="M40" t="n">
-        <v>31.89893941527384</v>
+        <v>40.17445209033703</v>
       </c>
       <c r="N40" t="n">
-        <v>31.14045393361393</v>
+        <v>39.21919341394443</v>
       </c>
       <c r="O40" t="n">
-        <v>28.76324943621632</v>
+        <v>36.22527292817725</v>
       </c>
       <c r="P40" t="n">
-        <v>24.61192889757021</v>
+        <v>30.9969790993356</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.04002383309676</v>
+        <v>21.46070162988427</v>
       </c>
       <c r="R40" t="n">
-        <v>9.149924859244006</v>
+        <v>11.52368149619016</v>
       </c>
       <c r="S40" t="n">
-        <v>3.546382117907553</v>
+        <v>4.46641678693824</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8694833570248045</v>
+        <v>1.095052629035458</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01397939526428246</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4536596581076707</v>
+        <v>0.5713521682554296</v>
       </c>
       <c r="H41" t="n">
-        <v>4.646041973595183</v>
+        <v>5.85136039314592</v>
       </c>
       <c r="I41" t="n">
-        <v>17.48971396919599</v>
+        <v>22.02705446666747</v>
       </c>
       <c r="J41" t="n">
-        <v>38.50379640731595</v>
+        <v>48.49280109046931</v>
       </c>
       <c r="K41" t="n">
-        <v>57.70720973501366</v>
+        <v>72.67813837272166</v>
       </c>
       <c r="L41" t="n">
-        <v>71.5908964968263</v>
+        <v>90.16365729196878</v>
       </c>
       <c r="M41" t="n">
-        <v>79.65866644169859</v>
+        <v>100.3244414141813</v>
       </c>
       <c r="N41" t="n">
-        <v>80.94762694529702</v>
+        <v>101.947795762237</v>
       </c>
       <c r="O41" t="n">
-        <v>76.43654871998886</v>
+        <v>96.26641263914708</v>
       </c>
       <c r="P41" t="n">
-        <v>65.23682591045574</v>
+        <v>82.16115598534115</v>
       </c>
       <c r="Q41" t="n">
-        <v>48.99013940447476</v>
+        <v>61.69960645969356</v>
       </c>
       <c r="R41" t="n">
-        <v>28.497198498606</v>
+        <v>35.89020063917516</v>
       </c>
       <c r="S41" t="n">
-        <v>10.33776945912856</v>
+        <v>13.01968753412061</v>
       </c>
       <c r="T41" t="n">
-        <v>1.98589515336633</v>
+        <v>2.501094116538144</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03629277264861365</v>
+        <v>0.04570817346043436</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2427293161280808</v>
+        <v>0.3057003605906294</v>
       </c>
       <c r="H42" t="n">
-        <v>2.344254184710675</v>
+        <v>2.952421903598974</v>
       </c>
       <c r="I42" t="n">
-        <v>8.357127770199273</v>
+        <v>10.52520978349316</v>
       </c>
       <c r="J42" t="n">
-        <v>22.93259736278504</v>
+        <v>28.88198012053837</v>
       </c>
       <c r="K42" t="n">
-        <v>39.19546154336646</v>
+        <v>49.36390428011054</v>
       </c>
       <c r="L42" t="n">
-        <v>52.70313506544141</v>
+        <v>66.37586118876801</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>72.54669711104845</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>68.17580676638102</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>72.73389237263102</v>
       </c>
       <c r="P42" t="n">
-        <v>46.35065335782624</v>
+        <v>58.37536096225799</v>
       </c>
       <c r="Q42" t="n">
-        <v>30.98418428329677</v>
+        <v>39.0223828711828</v>
       </c>
       <c r="R42" t="n">
-        <v>15.07050964521541</v>
+        <v>18.98023817772347</v>
       </c>
       <c r="S42" t="n">
-        <v>4.508590586852725</v>
+        <v>5.678250118865415</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9783694803583604</v>
+        <v>1.232186979749071</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01596903395579479</v>
+        <v>0.02011186582833089</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2034961048355926</v>
+        <v>0.2562889131785115</v>
       </c>
       <c r="H43" t="n">
-        <v>1.809265368447361</v>
+        <v>2.27864142807804</v>
       </c>
       <c r="I43" t="n">
-        <v>6.119682861783096</v>
+        <v>7.707306589041058</v>
       </c>
       <c r="J43" t="n">
-        <v>14.38717461187639</v>
+        <v>18.11962616172076</v>
       </c>
       <c r="K43" t="n">
-        <v>23.64254745271703</v>
+        <v>29.7761119129216</v>
       </c>
       <c r="L43" t="n">
-        <v>30.25432089528438</v>
+        <v>38.10317169201252</v>
       </c>
       <c r="M43" t="n">
-        <v>31.89893941527384</v>
+        <v>40.17445209033703</v>
       </c>
       <c r="N43" t="n">
-        <v>31.14045393361393</v>
+        <v>39.21919341394443</v>
       </c>
       <c r="O43" t="n">
-        <v>28.76324943621632</v>
+        <v>36.22527292817725</v>
       </c>
       <c r="P43" t="n">
-        <v>24.61192889757021</v>
+        <v>30.9969790993356</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.04002383309676</v>
+        <v>21.46070162988427</v>
       </c>
       <c r="R43" t="n">
-        <v>9.149924859244006</v>
+        <v>11.52368149619016</v>
       </c>
       <c r="S43" t="n">
-        <v>3.546382117907553</v>
+        <v>4.46641678693824</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8694833570248045</v>
+        <v>1.095052629035458</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01109978753648688</v>
+        <v>0.01397939526428246</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8300736173325258</v>
+        <v>0.5713521682554296</v>
       </c>
       <c r="H44" t="n">
-        <v>8.500991433506734</v>
+        <v>5.85136039314592</v>
       </c>
       <c r="I44" t="n">
-        <v>32.00141313221224</v>
+        <v>22.02705446666747</v>
       </c>
       <c r="J44" t="n">
-        <v>70.45146067907653</v>
+        <v>48.49280109046931</v>
       </c>
       <c r="K44" t="n">
-        <v>105.5884769007624</v>
+        <v>72.67813837272166</v>
       </c>
       <c r="L44" t="n">
-        <v>130.9918423672027</v>
+        <v>90.16365729196878</v>
       </c>
       <c r="M44" t="n">
-        <v>145.75366405944</v>
+        <v>100.3244414141813</v>
       </c>
       <c r="N44" t="n">
-        <v>148.112110724686</v>
+        <v>101.947795762237</v>
       </c>
       <c r="O44" t="n">
-        <v>139.8580661923357</v>
+        <v>96.26641263914708</v>
       </c>
       <c r="P44" t="n">
-        <v>119.365623764439</v>
+        <v>82.16115598534115</v>
       </c>
       <c r="Q44" t="n">
-        <v>89.63861234371787</v>
+        <v>61.69960645969356</v>
       </c>
       <c r="R44" t="n">
-        <v>52.14211186476432</v>
+        <v>35.89020063917516</v>
       </c>
       <c r="S44" t="n">
-        <v>18.91530255496495</v>
+        <v>13.01968753412061</v>
       </c>
       <c r="T44" t="n">
-        <v>3.633647259873134</v>
+        <v>2.501094116538144</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06640588938660205</v>
+        <v>0.04570817346043436</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4441285396888136</v>
+        <v>0.3057003605906294</v>
       </c>
       <c r="H45" t="n">
-        <v>4.289346685941964</v>
+        <v>2.952421903598974</v>
       </c>
       <c r="I45" t="n">
-        <v>15.29126770419819</v>
+        <v>10.52520978349316</v>
       </c>
       <c r="J45" t="n">
-        <v>41.96040733963481</v>
+        <v>28.88198012053837</v>
       </c>
       <c r="K45" t="n">
-        <v>71.71701949878532</v>
+        <v>49.36390428011054</v>
       </c>
       <c r="L45" t="n">
-        <v>96.43238314602947</v>
+        <v>66.37586118876801</v>
       </c>
       <c r="M45" t="n">
-        <v>112.5320427097489</v>
+        <v>72.54669711104845</v>
       </c>
       <c r="N45" t="n">
-        <v>115.5104310307323</v>
+        <v>68.17580676638102</v>
       </c>
       <c r="O45" t="n">
-        <v>105.6694775986801</v>
+        <v>72.73389237263102</v>
       </c>
       <c r="P45" t="n">
-        <v>84.80907175864724</v>
+        <v>58.37536096225799</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483874</v>
+        <v>39.0223828711828</v>
       </c>
       <c r="R45" t="n">
-        <v>27.57492810453881</v>
+        <v>18.98023817772347</v>
       </c>
       <c r="S45" t="n">
-        <v>8.249492831500545</v>
+        <v>5.678250118865415</v>
       </c>
       <c r="T45" t="n">
-        <v>1.790149684096577</v>
+        <v>1.232186979749071</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02921898287426406</v>
+        <v>0.02011186582833089</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3723424484305123</v>
+        <v>0.2562889131785115</v>
       </c>
       <c r="H46" t="n">
-        <v>3.310462859682194</v>
+        <v>2.27864142807804</v>
       </c>
       <c r="I46" t="n">
-        <v>11.19735290371032</v>
+        <v>7.707306589041058</v>
       </c>
       <c r="J46" t="n">
-        <v>26.32461110403722</v>
+        <v>18.11962616172076</v>
       </c>
       <c r="K46" t="n">
-        <v>43.25942264492679</v>
+        <v>29.7761119129216</v>
       </c>
       <c r="L46" t="n">
-        <v>55.35716728756909</v>
+        <v>38.10317169201252</v>
       </c>
       <c r="M46" t="n">
-        <v>58.36637125715749</v>
+        <v>40.17445209033703</v>
       </c>
       <c r="N46" t="n">
-        <v>56.97854940391654</v>
+        <v>39.21919341394443</v>
       </c>
       <c r="O46" t="n">
-        <v>52.62891261997826</v>
+        <v>36.22527292817725</v>
       </c>
       <c r="P46" t="n">
-        <v>45.03312667199577</v>
+        <v>30.9969790993356</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.17860265903136</v>
+        <v>21.46070162988427</v>
       </c>
       <c r="R46" t="n">
-        <v>16.74187045397558</v>
+        <v>11.52368149619016</v>
       </c>
       <c r="S46" t="n">
-        <v>6.488913396739018</v>
+        <v>4.46641678693824</v>
       </c>
       <c r="T46" t="n">
-        <v>1.590917734203098</v>
+        <v>1.095052629035458</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02030958809620979</v>
+        <v>0.01397939526428246</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36363,16 +36363,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>14.37706333737321</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>10.26133737791896</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>4.115725959454246</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>14.3770633373732</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -36533,10 +36533,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>9.035505005617694</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>5.341558331755511</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>10.26133737791896</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>4.115725959454246</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36758,16 +36758,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>14.37706333737321</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>7.034216957135811</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>9.035505005617694</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>13.28975474725072</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>10.26133737791896</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>4.115725959454245</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>14.3770633373732</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>11.30042632400925</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>3.07663701336395</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>10.26133737791896</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>4.115725959454245</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37238,16 +37238,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>14.3770633373732</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37314,22 +37314,22 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>11.30042632400925</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>3.07663701336395</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>10.26133737791896</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>4.115725959454246</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>14.3770633373732</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>14.3770633373732</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>10.26133737791896</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>4.115725959454246</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37706,16 +37706,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>14.3770633373732</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>14.98241337263103</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>7.034216957135811</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>9.035505005617694</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>3.07663701336395</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>10.21311773388677</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>10.26133737791896</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>4.115725959454245</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>14.37706333737321</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>16.45208722754525</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>35.50644430435786</v>
+        <v>14.37706333737321</v>
       </c>
       <c r="M44" t="n">
-        <v>52.46343960239453</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="N44" t="n">
-        <v>55.19981996806671</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="O44" t="n">
-        <v>46.66829056655261</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="P44" t="n">
-        <v>45.67124634327094</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>15.89123671416993</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>40.31785933518042</v>
+        <v>10.26133737791896</v>
       </c>
       <c r="M45" t="n">
-        <v>54.96775897133151</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="N45" t="n">
-        <v>62.31703763698228</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="O45" t="n">
-        <v>47.91799859868014</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="P45" t="n">
-        <v>30.54943675584349</v>
+        <v>4.115725959454246</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38180,19 +38180,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>61.06205653356596</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>63.63309049287398</v>
+        <v>14.37706333737321</v>
       </c>
       <c r="N46" t="n">
-        <v>63.63309049287398</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="O46" t="n">
-        <v>63.63309049287398</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>14.98241337263102</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
